--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.0024576</v>
+        <v>0.012297</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -605,7 +605,7 @@
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>0.0024162</v>
+        <v>0.0040076</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.0034274</v>
+        <v>0.0063756</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.0032625</v>
+        <v>0.003573</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.0029277</v>
+        <v>0.0037962</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.001695</v>
+        <v>0.0018891</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.0020012</v>
+        <v>0.0029345</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.0007275000000000001</v>
+        <v>0.008385100000000001</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.0007188</v>
+        <v>0.0086429</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.0056541</v>
+        <v>0.006978900000000001</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0.0007817000000000001</v>
+        <v>0.0009220000000000001</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0.0037107</v>
+        <v>0.005346</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0.0036424</v>
+        <v>0.0053511</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0.0035703</v>
+        <v>0.0043203</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>0.0034187</v>
+        <v>0.0043274</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0.0020068</v>
+        <v>0.0022829</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0.0028002</v>
+        <v>0.003758</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0.0008796</v>
+        <v>0.0009325000000000001</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0.0007608000000000001</v>
+        <v>0.0008988000000000001</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>0.008893400000000001</v>
+        <v>0.007993800000000001</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.0020236</v>
+        <v>0.009234000000000001</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0.0025432</v>
+        <v>0.0021379</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0.0024623</v>
+        <v>0.0020513</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0.0021513</v>
+        <v>0.0027428</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>0.0018894</v>
+        <v>0.002817</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0.0007807000000000001</v>
+        <v>0.0090855</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0.000992</v>
+        <v>0.009278400000000001</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0.0043352</v>
+        <v>0.0063108</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0.0020101</v>
+        <v>0.0027556</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0.0007399</v>
+        <v>0.0093332</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0.0007403000000000001</v>
+        <v>0.0008822000000000001</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0.0060432</v>
+        <v>0.0069354</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>0.0020814</v>
+        <v>0.0031326</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0.0021101</v>
+        <v>0.003214</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0.0020063</v>
+        <v>0.0025383</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0.0018488</v>
+        <v>0.0021887</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0.0018453</v>
+        <v>0.0022169</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0.0007133</v>
+        <v>0.0008358</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0.0006746</v>
+        <v>0.0008128</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>0.0072884</v>
+        <v>0.008230300000000001</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0.0007756000000000001</v>
+        <v>0.0119282</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0.0356693</v>
+        <v>0.0086561</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0.0081095</v>
+        <v>0.008761100000000001</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0.0022003</v>
+        <v>0.0025199</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>0.0021738</v>
+        <v>0.002655</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0.0026762</v>
+        <v>0.0033197</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>0.0026557</v>
+        <v>0.0032923</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>0.0007802000000000001</v>
+        <v>0.0118607</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>0.0006627</v>
+        <v>0.012062</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>0.0067565</v>
+        <v>0.0103402</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>0.0006796</v>
+        <v>0.007943500000000001</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>0.003431</v>
+        <v>0.0050834</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>0.002713</v>
+        <v>0.0036202</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>0.0015334</v>
+        <v>0.0017501</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>0.0016781</v>
+        <v>0.0025142</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>0.0014347</v>
+        <v>0.0019892</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>0.0013524</v>
+        <v>0.0016315</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>0.0006575</v>
+        <v>0.007044600000000001</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>0.0008106000000000001</v>
+        <v>0.0072226</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>0.005312300000000001</v>
+        <v>0.006826100000000001</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>0.0006128</v>
+        <v>0.0007929</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>0.0016609</v>
+        <v>0.0019449</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>0.0036693</v>
+        <v>0.0047838</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>0.0014492</v>
+        <v>0.0016205</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>0.0013552</v>
+        <v>0.0014413</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         </is>
       </c>
       <c r="K67" t="n">
-        <v>0.0020758</v>
+        <v>0.0020252</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="K68" t="n">
-        <v>0.0017492</v>
+        <v>0.0020522</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>0.0005675000000000001</v>
+        <v>0.0007508</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         </is>
       </c>
       <c r="K70" t="n">
-        <v>0.0005675000000000001</v>
+        <v>0.0007253</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         </is>
       </c>
       <c r="K71" t="n">
-        <v>0.0033374</v>
+        <v>0.0043206</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="K72" t="n">
-        <v>0.0006219</v>
+        <v>0.0007808</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>0.0019605</v>
+        <v>0.0025669</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>0.0019486</v>
+        <v>0.0024583</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         </is>
       </c>
       <c r="K75" t="n">
-        <v>0.0010518</v>
+        <v>0.0011901</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         </is>
       </c>
       <c r="K76" t="n">
-        <v>0.0010619</v>
+        <v>0.0011955</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         </is>
       </c>
       <c r="K77" t="n">
-        <v>0.0013055</v>
+        <v>0.0017692</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>0.0012983</v>
+        <v>0.0015457</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="K79" t="n">
-        <v>0.0006228000000000001</v>
+        <v>0.0007542</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         </is>
       </c>
       <c r="K80" t="n">
-        <v>0.0006732</v>
+        <v>0.0007264000000000001</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         </is>
       </c>
       <c r="K81" t="n">
-        <v>0.0037918</v>
+        <v>0.004556</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="K82" t="n">
-        <v>0.0006474</v>
+        <v>0.0066078</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         </is>
       </c>
       <c r="K83" t="n">
-        <v>0.0029268</v>
+        <v>0.004256800000000001</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         </is>
       </c>
       <c r="K84" t="n">
-        <v>0.0029453</v>
+        <v>0.0040448</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         </is>
       </c>
       <c r="K85" t="n">
-        <v>0.0011957</v>
+        <v>0.0013381</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="K86" t="n">
-        <v>0.0012674</v>
+        <v>0.0013595</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="K87" t="n">
-        <v>0.001888</v>
+        <v>0.0024006</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="K88" t="n">
-        <v>0.0018359</v>
+        <v>0.0023208</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         </is>
       </c>
       <c r="K89" t="n">
-        <v>0.000662</v>
+        <v>0.0063359</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="K90" t="n">
-        <v>0.0006327</v>
+        <v>0.0063677</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="K91" t="n">
-        <v>0.0043629</v>
+        <v>0.005284700000000001</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         </is>
       </c>
       <c r="K92" t="n">
-        <v>0.0008732000000000001</v>
+        <v>0.0010647</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         </is>
       </c>
       <c r="K93" t="n">
-        <v>0.0011055</v>
+        <v>0.0016006</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         </is>
       </c>
       <c r="K94" t="n">
-        <v>0.0010822</v>
+        <v>0.0016314</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="K95" t="n">
-        <v>0.0010537</v>
+        <v>0.0016167</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="K96" t="n">
-        <v>0.0010657</v>
+        <v>0.0015903</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="K97" t="n">
-        <v>0.0015575</v>
+        <v>0.0022026</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         </is>
       </c>
       <c r="K98" t="n">
-        <v>0.0019419</v>
+        <v>0.0026328</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="K99" t="n">
-        <v>0.000943</v>
+        <v>0.0011091</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="K100" t="n">
-        <v>0.0009360000000000001</v>
+        <v>0.0010074</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         </is>
       </c>
       <c r="K101" t="n">
-        <v>0.0052998</v>
+        <v>0.007805800000000001</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         </is>
       </c>
       <c r="K102" t="n">
-        <v>0.0026745</v>
+        <v>0.0737112</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         </is>
       </c>
       <c r="K103" t="n">
-        <v>0.0088813</v>
+        <v>0.0136598</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="K104" t="n">
-        <v>0.009024800000000001</v>
+        <v>0.0148763</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="K105" t="n">
-        <v>0.0242645</v>
+        <v>0.03938750000000001</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         </is>
       </c>
       <c r="K106" t="n">
-        <v>0.0217826</v>
+        <v>0.0382065</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         </is>
       </c>
       <c r="K107" t="n">
-        <v>0.0060726</v>
+        <v>0.0166107</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="K108" t="n">
-        <v>0.005794400000000001</v>
+        <v>0.0160445</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         </is>
       </c>
       <c r="K109" t="n">
-        <v>0.002572</v>
+        <v>0.07678230000000001</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         </is>
       </c>
       <c r="K110" t="n">
-        <v>0.0025598</v>
+        <v>0.07417260000000001</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -7053,18 +7053,22 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Tân Thạnh</t>
+          <t>Ân Thạnh</t>
         </is>
       </c>
       <c r="K111" t="n">
-        <v>0.0242557</v>
+        <v>0.07284310000000001</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr"/>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Ward mismatch (expected 'Tân Thạnh', got 'Ân Thạnh')</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -7116,7 +7120,7 @@
         </is>
       </c>
       <c r="K112" t="n">
-        <v>0.0008668</v>
+        <v>0.001037</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -7171,7 +7175,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>0.0025449</v>
+        <v>0.0029816</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -7230,7 +7234,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>0.0024164</v>
+        <v>0.0028571</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -7289,7 +7293,7 @@
         </is>
       </c>
       <c r="K115" t="n">
-        <v>0.0013703</v>
+        <v>0.0020851</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -7348,7 +7352,7 @@
         </is>
       </c>
       <c r="K116" t="n">
-        <v>0.0013704</v>
+        <v>0.0020587</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -7407,7 +7411,7 @@
         </is>
       </c>
       <c r="K117" t="n">
-        <v>0.0016713</v>
+        <v>0.0028736</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -7466,7 +7470,7 @@
         </is>
       </c>
       <c r="K118" t="n">
-        <v>0.0019677</v>
+        <v>0.004361</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -7529,7 +7533,7 @@
         </is>
       </c>
       <c r="K119" t="n">
-        <v>0.0010556</v>
+        <v>0.0015422</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -7588,7 +7592,7 @@
         </is>
       </c>
       <c r="K120" t="n">
-        <v>0.0007859000000000001</v>
+        <v>0.0010754</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -7647,7 +7651,7 @@
         </is>
       </c>
       <c r="K121" t="n">
-        <v>0.0008075000000000001</v>
+        <v>0.0009738</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -7706,7 +7710,7 @@
         </is>
       </c>
       <c r="K122" t="n">
-        <v>0.0008398</v>
+        <v>0.0109262</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -7765,7 +7769,7 @@
         </is>
       </c>
       <c r="K123" t="n">
-        <v>0.0006001</v>
+        <v>0.007213000000000001</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -7824,7 +7828,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>0.002786</v>
+        <v>0.0037978</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -7883,7 +7887,7 @@
         </is>
       </c>
       <c r="K125" t="n">
-        <v>0.0015427</v>
+        <v>0.0019503</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -7946,7 +7950,7 @@
         </is>
       </c>
       <c r="K126" t="n">
-        <v>0.0025299</v>
+        <v>0.0038648</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -8005,7 +8009,7 @@
         </is>
       </c>
       <c r="K127" t="n">
-        <v>0.0022678</v>
+        <v>0.0031139</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -8064,7 +8068,7 @@
         </is>
       </c>
       <c r="K128" t="n">
-        <v>0.0024314</v>
+        <v>0.0030061</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -8127,7 +8131,7 @@
         </is>
       </c>
       <c r="K129" t="n">
-        <v>0.0008699000000000001</v>
+        <v>0.011129</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -8186,7 +8190,7 @@
         </is>
       </c>
       <c r="K130" t="n">
-        <v>0.0007931</v>
+        <v>0.0112501</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -8245,7 +8249,7 @@
         </is>
       </c>
       <c r="K131" t="n">
-        <v>0.005904400000000001</v>
+        <v>0.0082694</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -8304,7 +8308,7 @@
         </is>
       </c>
       <c r="K132" t="n">
-        <v>0.0006641</v>
+        <v>0.008391600000000001</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -8363,7 +8367,7 @@
         </is>
       </c>
       <c r="K133" t="n">
-        <v>0.0035475</v>
+        <v>0.0067869</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -8426,7 +8430,7 @@
         </is>
       </c>
       <c r="K134" t="n">
-        <v>0.0044465</v>
+        <v>0.0066696</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -8485,7 +8489,7 @@
         </is>
       </c>
       <c r="K135" t="n">
-        <v>0.0021969</v>
+        <v>0.0023576</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -8544,7 +8548,7 @@
         </is>
       </c>
       <c r="K136" t="n">
-        <v>0.0021665</v>
+        <v>0.0022976</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -8603,7 +8607,7 @@
         </is>
       </c>
       <c r="K137" t="n">
-        <v>0.0018417</v>
+        <v>0.002199</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -8662,7 +8666,7 @@
         </is>
       </c>
       <c r="K138" t="n">
-        <v>0.0018325</v>
+        <v>0.0020014</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -8725,7 +8729,7 @@
         </is>
       </c>
       <c r="K139" t="n">
-        <v>0.0006169000000000001</v>
+        <v>0.008152400000000001</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -8784,7 +8788,7 @@
         </is>
       </c>
       <c r="K140" t="n">
-        <v>0.0005626</v>
+        <v>0.0098049</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -8843,7 +8847,7 @@
         </is>
       </c>
       <c r="K141" t="n">
-        <v>0.0053416</v>
+        <v>0.0089879</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -8902,7 +8906,7 @@
         </is>
       </c>
       <c r="K142" t="n">
-        <v>0.0018826</v>
+        <v>0.0325526</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -8961,7 +8965,7 @@
         </is>
       </c>
       <c r="K143" t="n">
-        <v>0.008480600000000001</v>
+        <v>0.012341</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -9024,7 +9028,7 @@
         </is>
       </c>
       <c r="K144" t="n">
-        <v>0.0010833</v>
+        <v>0.0190357</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -9083,7 +9087,7 @@
         </is>
       </c>
       <c r="K145" t="n">
-        <v>0.0017604</v>
+        <v>0.0030273</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -9142,7 +9146,7 @@
         </is>
       </c>
       <c r="K146" t="n">
-        <v>0.0017188</v>
+        <v>0.0029696</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -9201,7 +9205,7 @@
         </is>
       </c>
       <c r="K147" t="n">
-        <v>0.0019346</v>
+        <v>0.0030297</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -9260,7 +9264,7 @@
         </is>
       </c>
       <c r="K148" t="n">
-        <v>0.0017738</v>
+        <v>0.0030126</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -9323,7 +9327,7 @@
         </is>
       </c>
       <c r="K149" t="n">
-        <v>0.0016898</v>
+        <v>0.0314527</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -9382,7 +9386,7 @@
         </is>
       </c>
       <c r="K150" t="n">
-        <v>0.0016336</v>
+        <v>0.0305632</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -9441,7 +9445,7 @@
         </is>
       </c>
       <c r="K151" t="n">
-        <v>0.0125986</v>
+        <v>0.0301332</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -9500,7 +9504,7 @@
         </is>
       </c>
       <c r="K152" t="n">
-        <v>0.0007928000000000001</v>
+        <v>0.0117161</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -9559,7 +9563,7 @@
         </is>
       </c>
       <c r="K153" t="n">
-        <v>0.0057177</v>
+        <v>0.0084688</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -9622,7 +9626,7 @@
         </is>
       </c>
       <c r="K154" t="n">
-        <v>0.006781000000000001</v>
+        <v>0.009159</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -9681,7 +9685,7 @@
         </is>
       </c>
       <c r="K155" t="n">
-        <v>0.0028023</v>
+        <v>0.0029573</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -9740,7 +9744,7 @@
         </is>
       </c>
       <c r="K156" t="n">
-        <v>0.0025169</v>
+        <v>0.0029161</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -9799,7 +9803,7 @@
         </is>
       </c>
       <c r="K157" t="n">
-        <v>0.0026772</v>
+        <v>0.0029272</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -9858,7 +9862,7 @@
         </is>
       </c>
       <c r="K158" t="n">
-        <v>0.0026754</v>
+        <v>0.002955</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -9921,7 +9925,7 @@
         </is>
       </c>
       <c r="K159" t="n">
-        <v>0.0007225000000000001</v>
+        <v>0.0116392</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -9980,7 +9984,7 @@
         </is>
       </c>
       <c r="K160" t="n">
-        <v>0.0006826</v>
+        <v>0.0116118</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -10039,7 +10043,7 @@
         </is>
       </c>
       <c r="K161" t="n">
-        <v>0.0066055</v>
+        <v>0.0101533</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -10098,7 +10102,7 @@
         </is>
       </c>
       <c r="K162" t="n">
-        <v>0.0006673</v>
+        <v>0.0007830000000000001</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -10157,7 +10161,7 @@
         </is>
       </c>
       <c r="K163" t="n">
-        <v>0.0034396</v>
+        <v>0.0047348</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -10220,7 +10224,7 @@
         </is>
       </c>
       <c r="K164" t="n">
-        <v>0.0025556</v>
+        <v>0.0033255</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -10279,7 +10283,7 @@
         </is>
       </c>
       <c r="K165" t="n">
-        <v>0.0014928</v>
+        <v>0.0016301</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -10338,7 +10342,7 @@
         </is>
       </c>
       <c r="K166" t="n">
-        <v>0.0020059</v>
+        <v>0.0021607</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -10397,7 +10401,7 @@
         </is>
       </c>
       <c r="K167" t="n">
-        <v>0.0017203</v>
+        <v>0.0019485</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -10456,7 +10460,7 @@
         </is>
       </c>
       <c r="K168" t="n">
-        <v>0.0017526</v>
+        <v>0.0018539</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -10519,7 +10523,7 @@
         </is>
       </c>
       <c r="K169" t="n">
-        <v>0.0006360000000000001</v>
+        <v>0.0007781000000000001</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -10578,7 +10582,7 @@
         </is>
       </c>
       <c r="K170" t="n">
-        <v>0.0006044000000000001</v>
+        <v>0.0007454</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -10637,7 +10641,7 @@
         </is>
       </c>
       <c r="K171" t="n">
-        <v>0.005852700000000001</v>
+        <v>0.007310400000000001</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -10696,7 +10700,7 @@
         </is>
       </c>
       <c r="K172" t="n">
-        <v>0.0019147</v>
+        <v>0.0319187</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -10755,7 +10759,7 @@
         </is>
       </c>
       <c r="K173" t="n">
-        <v>0.009481900000000001</v>
+        <v>0.02811</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -10818,7 +10822,7 @@
         </is>
       </c>
       <c r="K174" t="n">
-        <v>0.009489800000000001</v>
+        <v>0.0290039</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -10881,7 +10885,7 @@
         </is>
       </c>
       <c r="K175" t="n">
-        <v>0.009333000000000001</v>
+        <v>0.0212103</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -10944,7 +10948,7 @@
         </is>
       </c>
       <c r="K176" t="n">
-        <v>0.0082317</v>
+        <v>0.0183902</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -11003,7 +11007,7 @@
         </is>
       </c>
       <c r="K177" t="n">
-        <v>0.003209</v>
+        <v>0.007824300000000001</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -11062,7 +11066,7 @@
         </is>
       </c>
       <c r="K178" t="n">
-        <v>0.0030462</v>
+        <v>0.010624</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -11125,7 +11129,7 @@
         </is>
       </c>
       <c r="K179" t="n">
-        <v>0.0018637</v>
+        <v>0.0322188</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -11184,7 +11188,7 @@
         </is>
       </c>
       <c r="K180" t="n">
-        <v>0.001896</v>
+        <v>0.0313991</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -11243,7 +11247,7 @@
         </is>
       </c>
       <c r="K181" t="n">
-        <v>0.009637300000000001</v>
+        <v>0.0289688</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -11306,7 +11310,7 @@
         </is>
       </c>
       <c r="K182" t="n">
-        <v>0.0009395</v>
+        <v>0.0010249</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -11361,7 +11365,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>0.0032252</v>
+        <v>0.005547600000000001</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -11424,7 +11428,7 @@
         </is>
       </c>
       <c r="K184" t="n">
-        <v>0.0036958</v>
+        <v>0.0050432</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -11479,7 +11483,7 @@
         </is>
       </c>
       <c r="K185" t="n">
-        <v>0.000557</v>
+        <v>0.0007982000000000001</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -11534,7 +11538,7 @@
         </is>
       </c>
       <c r="K186" t="n">
-        <v>0.0005943000000000001</v>
+        <v>0.0007598</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -11589,7 +11593,7 @@
         </is>
       </c>
       <c r="K187" t="n">
-        <v>0.0005417</v>
+        <v>0.0007552</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -11644,7 +11648,7 @@
         </is>
       </c>
       <c r="K188" t="n">
-        <v>0.0005199</v>
+        <v>0.0007497000000000001</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -11707,7 +11711,7 @@
         </is>
       </c>
       <c r="K189" t="n">
-        <v>0.0008307000000000001</v>
+        <v>0.0010207</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -11766,7 +11770,7 @@
         </is>
       </c>
       <c r="K190" t="n">
-        <v>0.0008207000000000001</v>
+        <v>0.000974</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -11825,7 +11829,7 @@
         </is>
       </c>
       <c r="K191" t="n">
-        <v>0.0045775</v>
+        <v>0.007752200000000001</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -11884,7 +11888,7 @@
         </is>
       </c>
       <c r="K192" t="n">
-        <v>0.0008647</v>
+        <v>0.001137</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -11939,7 +11943,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>0.001837</v>
+        <v>0.0024348</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -11998,7 +12002,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>0.0018335</v>
+        <v>0.0024608</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -12057,7 +12061,7 @@
         </is>
       </c>
       <c r="K195" t="n">
-        <v>0.0016067</v>
+        <v>0.0023669</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -12116,7 +12120,7 @@
         </is>
       </c>
       <c r="K196" t="n">
-        <v>0.0015437</v>
+        <v>0.0021882</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -12175,7 +12179,7 @@
         </is>
       </c>
       <c r="K197" t="n">
-        <v>0.0019716</v>
+        <v>0.0027495</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -12234,7 +12238,7 @@
         </is>
       </c>
       <c r="K198" t="n">
-        <v>0.0018802</v>
+        <v>0.0027162</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -12297,7 +12301,7 @@
         </is>
       </c>
       <c r="K199" t="n">
-        <v>0.0008447000000000001</v>
+        <v>0.0010982</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -12356,7 +12360,7 @@
         </is>
       </c>
       <c r="K200" t="n">
-        <v>0.0008412000000000001</v>
+        <v>0.0010386</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -12415,7 +12419,7 @@
         </is>
       </c>
       <c r="K201" t="n">
-        <v>0.006103600000000001</v>
+        <v>0.007506000000000001</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -12474,7 +12478,7 @@
         </is>
       </c>
       <c r="K202" t="n">
-        <v>0.006236800000000001</v>
+        <v>0.0105815</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -12507,8 +12511,16 @@
           <t>Hồ Chí Minh</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H203" t="inlineStr">
         <is>
           <t>Hồ Chí Minh</t>
@@ -12525,18 +12537,14 @@
         </is>
       </c>
       <c r="K203" t="n">
-        <v>0.0014593</v>
+        <v>0.0023978</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="M203" t="inlineStr">
-        <is>
-          <t>District mismatch (expected 'None', got '3'); Ward mismatch (expected 'None', got '1')</t>
-        </is>
-      </c>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -12584,7 +12592,7 @@
         </is>
       </c>
       <c r="K204" t="n">
-        <v>0.0011099</v>
+        <v>0.0018513</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -12647,7 +12655,7 @@
         </is>
       </c>
       <c r="K205" t="n">
-        <v>0.0030151</v>
+        <v>0.004148600000000001</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -12706,7 +12714,7 @@
         </is>
       </c>
       <c r="K206" t="n">
-        <v>0.0029815</v>
+        <v>0.0046482</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -12765,7 +12773,7 @@
         </is>
       </c>
       <c r="K207" t="n">
-        <v>0.0037219</v>
+        <v>0.007387</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -12824,7 +12832,7 @@
         </is>
       </c>
       <c r="K208" t="n">
-        <v>0.0028328</v>
+        <v>0.004120400000000001</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -12883,7 +12891,7 @@
         </is>
       </c>
       <c r="K209" t="n">
-        <v>0.0025504</v>
+        <v>0.006065800000000001</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -12942,7 +12950,7 @@
         </is>
       </c>
       <c r="K210" t="n">
-        <v>0.0035074</v>
+        <v>0.005117200000000001</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -13001,7 +13009,7 @@
         </is>
       </c>
       <c r="K211" t="n">
-        <v>0.0025494</v>
+        <v>0.0055231</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -13052,7 +13060,7 @@
         </is>
       </c>
       <c r="K212" t="n">
-        <v>0.0039154</v>
+        <v>0.006233000000000001</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -13115,7 +13123,7 @@
         </is>
       </c>
       <c r="K213" t="n">
-        <v>0.004956400000000001</v>
+        <v>0.007059800000000001</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -13174,7 +13182,7 @@
         </is>
       </c>
       <c r="K214" t="n">
-        <v>0.0044321</v>
+        <v>0.0042477</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -13229,22 +13237,18 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Dương Nội</t>
+          <t>Yên Nghĩa</t>
         </is>
       </c>
       <c r="K215" t="n">
-        <v>0.004980200000000001</v>
+        <v>0.007780400000000001</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="M215" t="inlineStr">
-        <is>
-          <t>Ward mismatch (expected 'Yên Nghĩa', got 'Dương Nội')</t>
-        </is>
-      </c>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -13296,7 +13300,7 @@
         </is>
       </c>
       <c r="K216" t="n">
-        <v>0.0030471</v>
+        <v>0.0044415</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -13355,7 +13359,7 @@
         </is>
       </c>
       <c r="K217" t="n">
-        <v>0.009653800000000001</v>
+        <v>0.021969</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -13414,7 +13418,7 @@
         </is>
       </c>
       <c r="K218" t="n">
-        <v>0.004575800000000001</v>
+        <v>0.0065734</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -13473,7 +13477,7 @@
         </is>
       </c>
       <c r="K219" t="n">
-        <v>0.0022027</v>
+        <v>0.0042372</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -13532,7 +13536,7 @@
         </is>
       </c>
       <c r="K220" t="n">
-        <v>0.0032887</v>
+        <v>0.005366</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -13591,7 +13595,7 @@
         </is>
       </c>
       <c r="K221" t="n">
-        <v>0.007091500000000001</v>
+        <v>0.0106795</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -13650,7 +13654,7 @@
         </is>
       </c>
       <c r="K222" t="n">
-        <v>0.005514300000000001</v>
+        <v>0.0061395</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -13709,7 +13713,7 @@
         </is>
       </c>
       <c r="K223" t="n">
-        <v>0.0051674</v>
+        <v>0.005470500000000001</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -13768,7 +13772,7 @@
         </is>
       </c>
       <c r="K224" t="n">
-        <v>0.0007024000000000001</v>
+        <v>0.0008467</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -13827,7 +13831,7 @@
         </is>
       </c>
       <c r="K225" t="n">
-        <v>0.0039083</v>
+        <v>0.004811800000000001</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -13886,7 +13890,7 @@
         </is>
       </c>
       <c r="K226" t="n">
-        <v>0.0026267</v>
+        <v>0.004362100000000001</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -13945,7 +13949,7 @@
         </is>
       </c>
       <c r="K227" t="n">
-        <v>0.0098771</v>
+        <v>0.0162914</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -14004,7 +14008,7 @@
         </is>
       </c>
       <c r="K228" t="n">
-        <v>0.0071446</v>
+        <v>0.0104382</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -14063,7 +14067,7 @@
         </is>
       </c>
       <c r="K229" t="n">
-        <v>0.0045207</v>
+        <v>0.0084096</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -14110,7 +14114,7 @@
         </is>
       </c>
       <c r="K230" t="n">
-        <v>0.0010102</v>
+        <v>0.0092879</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -14173,7 +14177,7 @@
         </is>
       </c>
       <c r="K231" t="n">
-        <v>0.0027168</v>
+        <v>0.0036894</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -14232,7 +14236,7 @@
         </is>
       </c>
       <c r="K232" t="n">
-        <v>0.004578700000000001</v>
+        <v>0.0053617</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -14291,7 +14295,7 @@
         </is>
       </c>
       <c r="K233" t="n">
-        <v>0.0019865</v>
+        <v>0.0020763</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -14350,7 +14354,7 @@
         </is>
       </c>
       <c r="K234" t="n">
-        <v>0.0032835</v>
+        <v>0.0035485</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -14409,7 +14413,7 @@
         </is>
       </c>
       <c r="K235" t="n">
-        <v>0.0042795</v>
+        <v>0.00431</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -14468,7 +14472,7 @@
         </is>
       </c>
       <c r="K236" t="n">
-        <v>0.007489000000000001</v>
+        <v>0.009836800000000001</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -14527,7 +14531,7 @@
         </is>
       </c>
       <c r="K237" t="n">
-        <v>0.004256</v>
+        <v>0.0071846</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -14586,7 +14590,7 @@
         </is>
       </c>
       <c r="K238" t="n">
-        <v>0.0012065</v>
+        <v>0.0013319</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -14645,7 +14649,7 @@
         </is>
       </c>
       <c r="K239" t="n">
-        <v>0.0040401</v>
+        <v>0.005402300000000001</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -14704,7 +14708,7 @@
         </is>
       </c>
       <c r="K240" t="n">
-        <v>0.0077529</v>
+        <v>0.0134367</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -14759,22 +14763,18 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Xuân Lũng</t>
+          <t>Bình Trung</t>
         </is>
       </c>
       <c r="K241" t="n">
-        <v>0.0039163</v>
+        <v>0.007451800000000001</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="M241" t="inlineStr">
-        <is>
-          <t>Ward mismatch (expected 'Bình Trung', got 'Xuân Lũng')</t>
-        </is>
-      </c>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -14826,7 +14826,7 @@
         </is>
       </c>
       <c r="K242" t="n">
-        <v>0.0011453</v>
+        <v>0.0012331</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         </is>
       </c>
       <c r="K243" t="n">
-        <v>0.006560900000000001</v>
+        <v>0.0083371</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         </is>
       </c>
       <c r="K244" t="n">
-        <v>0.0032789</v>
+        <v>0.003284</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         </is>
       </c>
       <c r="K245" t="n">
-        <v>0.0028402</v>
+        <v>0.0037037</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         </is>
       </c>
       <c r="K246" t="n">
-        <v>0.0007247</v>
+        <v>0.0008275</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -15105,22 +15105,18 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Bình Minh</t>
+          <t>Minh Hòa</t>
         </is>
       </c>
       <c r="K247" t="n">
-        <v>0.0081286</v>
+        <v>0.0173559</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="M247" t="inlineStr">
-        <is>
-          <t>Ward mismatch (expected 'Minh Hòa', got 'Bình Minh')</t>
-        </is>
-      </c>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -15172,7 +15168,7 @@
         </is>
       </c>
       <c r="K248" t="n">
-        <v>0.0064843</v>
+        <v>0.008334000000000001</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -15231,7 +15227,7 @@
         </is>
       </c>
       <c r="K249" t="n">
-        <v>0.0006611000000000001</v>
+        <v>0.0007755</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -15282,7 +15278,7 @@
         </is>
       </c>
       <c r="K250" t="n">
-        <v>0.0027688</v>
+        <v>0.0033346</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -15345,7 +15341,7 @@
         </is>
       </c>
       <c r="K251" t="n">
-        <v>0.0033575</v>
+        <v>0.006284100000000001</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -15404,7 +15400,7 @@
         </is>
       </c>
       <c r="K252" t="n">
-        <v>0.0069608</v>
+        <v>0.0186034</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -15463,7 +15459,7 @@
         </is>
       </c>
       <c r="K253" t="n">
-        <v>0.0029946</v>
+        <v>0.0044941</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -15522,7 +15518,7 @@
         </is>
       </c>
       <c r="K254" t="n">
-        <v>0.006786400000000001</v>
+        <v>0.008447700000000001</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -15581,7 +15577,7 @@
         </is>
       </c>
       <c r="K255" t="n">
-        <v>0.004318900000000001</v>
+        <v>0.0061022</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -15640,7 +15636,7 @@
         </is>
       </c>
       <c r="K256" t="n">
-        <v>0.0007018</v>
+        <v>0.0007937</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -15699,7 +15695,7 @@
         </is>
       </c>
       <c r="K257" t="n">
-        <v>0.0035934</v>
+        <v>0.0043372</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -15758,7 +15754,7 @@
         </is>
       </c>
       <c r="K258" t="n">
-        <v>0.006493700000000001</v>
+        <v>0.0095052</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -15821,7 +15817,7 @@
         </is>
       </c>
       <c r="K259" t="n">
-        <v>0.0041273</v>
+        <v>0.0068475</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -15880,7 +15876,7 @@
         </is>
       </c>
       <c r="K260" t="n">
-        <v>0.0028411</v>
+        <v>0.004909500000000001</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -15943,7 +15939,7 @@
         </is>
       </c>
       <c r="K261" t="n">
-        <v>0.0008425</v>
+        <v>0.0010188</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -16002,7 +15998,7 @@
         </is>
       </c>
       <c r="K262" t="n">
-        <v>0.0122128</v>
+        <v>0.018462</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -16061,7 +16057,7 @@
         </is>
       </c>
       <c r="K263" t="n">
-        <v>0.0047063</v>
+        <v>0.0046604</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -16120,7 +16116,7 @@
         </is>
       </c>
       <c r="K264" t="n">
-        <v>0.0107902</v>
+        <v>0.0113896</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -16179,7 +16175,7 @@
         </is>
       </c>
       <c r="K265" t="n">
-        <v>0.0081899</v>
+        <v>0.0102893</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -16238,7 +16234,7 @@
         </is>
       </c>
       <c r="K266" t="n">
-        <v>0.0077508</v>
+        <v>0.006258000000000001</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -16297,7 +16293,7 @@
         </is>
       </c>
       <c r="K267" t="n">
-        <v>0.005933300000000001</v>
+        <v>0.0072946</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -16356,7 +16352,7 @@
         </is>
       </c>
       <c r="K268" t="n">
-        <v>0.0009438000000000001</v>
+        <v>0.0008593</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -16415,7 +16411,7 @@
         </is>
       </c>
       <c r="K269" t="n">
-        <v>0.005031300000000001</v>
+        <v>0.0059538</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -16474,7 +16470,7 @@
         </is>
       </c>
       <c r="K270" t="n">
-        <v>0.004299300000000001</v>
+        <v>0.0061821</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -16533,7 +16529,7 @@
         </is>
       </c>
       <c r="K271" t="n">
-        <v>0.0097012</v>
+        <v>0.0101085</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -16592,7 +16588,7 @@
         </is>
       </c>
       <c r="K272" t="n">
-        <v>0.0035864</v>
+        <v>0.0036709</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -16651,7 +16647,7 @@
         </is>
       </c>
       <c r="K273" t="n">
-        <v>0.0008217000000000001</v>
+        <v>0.0011687</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -16710,7 +16706,7 @@
         </is>
       </c>
       <c r="K274" t="n">
-        <v>0.0027969</v>
+        <v>0.0031475</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -16769,7 +16765,7 @@
         </is>
       </c>
       <c r="K275" t="n">
-        <v>0.0026212</v>
+        <v>0.0029201</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -16828,7 +16824,7 @@
         </is>
       </c>
       <c r="K276" t="n">
-        <v>0.0054118</v>
+        <v>0.0079904</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -16883,7 +16879,7 @@
         </is>
       </c>
       <c r="K277" t="n">
-        <v>0.0018144</v>
+        <v>0.0024592</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -16946,7 +16942,7 @@
         </is>
       </c>
       <c r="K278" t="n">
-        <v>0.0010318</v>
+        <v>0.006784200000000001</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -17005,7 +17001,7 @@
         </is>
       </c>
       <c r="K279" t="n">
-        <v>0.0055829</v>
+        <v>0.0071767</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -17060,7 +17056,7 @@
         </is>
       </c>
       <c r="K280" t="n">
-        <v>0.0053382</v>
+        <v>0.006842600000000001</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -17123,7 +17119,7 @@
         </is>
       </c>
       <c r="K281" t="n">
-        <v>0.0057654</v>
+        <v>0.0074742</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -17182,7 +17178,7 @@
         </is>
       </c>
       <c r="K282" t="n">
-        <v>0.0067041</v>
+        <v>0.0089519</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -17241,7 +17237,7 @@
         </is>
       </c>
       <c r="K283" t="n">
-        <v>0.004501300000000001</v>
+        <v>0.0041592</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -17300,7 +17296,7 @@
         </is>
       </c>
       <c r="K284" t="n">
-        <v>0.002648</v>
+        <v>0.003327</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -17359,7 +17355,7 @@
         </is>
       </c>
       <c r="K285" t="n">
-        <v>0.0030587</v>
+        <v>0.0037044</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -17418,7 +17414,7 @@
         </is>
       </c>
       <c r="K286" t="n">
-        <v>0.0034135</v>
+        <v>0.004904400000000001</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -17465,7 +17461,7 @@
         </is>
       </c>
       <c r="K287" t="n">
-        <v>0.0186715</v>
+        <v>0.0357263</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -17528,7 +17524,7 @@
         </is>
       </c>
       <c r="K288" t="n">
-        <v>0.0066414</v>
+        <v>0.0154531</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -17591,7 +17587,7 @@
         </is>
       </c>
       <c r="K289" t="n">
-        <v>0.0031488</v>
+        <v>0.006168300000000001</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -17646,22 +17642,18 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Quỳnh Thanh</t>
+          <t>Thanh Nhàn</t>
         </is>
       </c>
       <c r="K290" t="n">
-        <v>0.004216200000000001</v>
+        <v>0.0074523</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="M290" t="inlineStr">
-        <is>
-          <t>Ward mismatch (expected 'Thanh Nhàn', got 'Quỳnh Thanh')</t>
-        </is>
-      </c>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -17713,7 +17705,7 @@
         </is>
       </c>
       <c r="K291" t="n">
-        <v>0.0029955</v>
+        <v>0.004616400000000001</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -17772,7 +17764,7 @@
         </is>
       </c>
       <c r="K292" t="n">
-        <v>0.0038241</v>
+        <v>0.008079900000000001</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -17831,7 +17823,7 @@
         </is>
       </c>
       <c r="K293" t="n">
-        <v>0.0024869</v>
+        <v>0.0031545</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -17890,7 +17882,7 @@
         </is>
       </c>
       <c r="K294" t="n">
-        <v>0.004853700000000001</v>
+        <v>0.007821</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -17949,7 +17941,7 @@
         </is>
       </c>
       <c r="K295" t="n">
-        <v>0.0057726</v>
+        <v>0.008810100000000001</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -18008,7 +18000,7 @@
         </is>
       </c>
       <c r="K296" t="n">
-        <v>0.0041882</v>
+        <v>0.00746</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -18067,7 +18059,7 @@
         </is>
       </c>
       <c r="K297" t="n">
-        <v>0.0050791</v>
+        <v>0.008349800000000001</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -18130,7 +18122,7 @@
         </is>
       </c>
       <c r="K298" t="n">
-        <v>0.002838</v>
+        <v>0.0024438</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -18189,7 +18181,7 @@
         </is>
       </c>
       <c r="K299" t="n">
-        <v>0.0024841</v>
+        <v>0.0031511</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -18248,7 +18240,7 @@
         </is>
       </c>
       <c r="K300" t="n">
-        <v>0.0025933</v>
+        <v>0.0029913</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -18307,7 +18299,7 @@
         </is>
       </c>
       <c r="K301" t="n">
-        <v>0.007184200000000001</v>
+        <v>0.0135924</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -18366,7 +18358,7 @@
         </is>
       </c>
       <c r="K302" t="n">
-        <v>0.0089616</v>
+        <v>0.0159144</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -18425,7 +18417,7 @@
         </is>
       </c>
       <c r="K303" t="n">
-        <v>0.009552100000000001</v>
+        <v>0.008873800000000001</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -18484,7 +18476,7 @@
         </is>
       </c>
       <c r="K304" t="n">
-        <v>0.007687100000000001</v>
+        <v>0.0156094</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -18547,7 +18539,7 @@
         </is>
       </c>
       <c r="K305" t="n">
-        <v>0.005463600000000001</v>
+        <v>0.0066733</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -18602,22 +18594,18 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Tân Hưng</t>
+          <t>Hưng Hà</t>
         </is>
       </c>
       <c r="K306" t="n">
-        <v>0.009273200000000001</v>
+        <v>0.0166507</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="M306" t="inlineStr">
-        <is>
-          <t>Ward mismatch (expected 'Hưng Hà', got 'Tân Hưng')</t>
-        </is>
-      </c>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -18669,7 +18657,7 @@
         </is>
       </c>
       <c r="K307" t="n">
-        <v>0.0041228</v>
+        <v>0.006378600000000001</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -18728,7 +18716,7 @@
         </is>
       </c>
       <c r="K308" t="n">
-        <v>0.004553000000000001</v>
+        <v>0.0077418</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -18787,7 +18775,7 @@
         </is>
       </c>
       <c r="K309" t="n">
-        <v>0.0040583</v>
+        <v>0.004917700000000001</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -18830,7 +18818,7 @@
         </is>
       </c>
       <c r="K310" t="n">
-        <v>0.0010248</v>
+        <v>0.001062</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -18893,7 +18881,7 @@
         </is>
       </c>
       <c r="K311" t="n">
-        <v>0.004209500000000001</v>
+        <v>0.0044624</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -18952,7 +18940,7 @@
         </is>
       </c>
       <c r="K312" t="n">
-        <v>0.0107055</v>
+        <v>0.0178198</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -19011,7 +18999,7 @@
         </is>
       </c>
       <c r="K313" t="n">
-        <v>0.0029476</v>
+        <v>0.0055224</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -19066,7 +19054,7 @@
         </is>
       </c>
       <c r="K314" t="n">
-        <v>0.0010025</v>
+        <v>0.0102733</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -19117,7 +19105,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>0.0014626</v>
+        <v>0.0015746</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -19180,7 +19168,7 @@
         </is>
       </c>
       <c r="K316" t="n">
-        <v>0.0030072</v>
+        <v>0.0055439</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -19239,7 +19227,7 @@
         </is>
       </c>
       <c r="K317" t="n">
-        <v>0.0036915</v>
+        <v>0.0054691</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -19302,7 +19290,7 @@
         </is>
       </c>
       <c r="K318" t="n">
-        <v>0.0067372</v>
+        <v>0.0104926</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -19361,7 +19349,7 @@
         </is>
       </c>
       <c r="K319" t="n">
-        <v>0.0036064</v>
+        <v>0.0073793</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -19420,7 +19408,7 @@
         </is>
       </c>
       <c r="K320" t="n">
-        <v>0.00353</v>
+        <v>0.0044172</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -19479,7 +19467,7 @@
         </is>
       </c>
       <c r="K321" t="n">
-        <v>0.0037016</v>
+        <v>0.0047426</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -19538,7 +19526,7 @@
         </is>
       </c>
       <c r="K322" t="n">
-        <v>0.007308100000000001</v>
+        <v>0.006999</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -19597,7 +19585,7 @@
         </is>
       </c>
       <c r="K323" t="n">
-        <v>0.005055100000000001</v>
+        <v>0.008910400000000001</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -19644,7 +19632,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>0.0006662</v>
+        <v>0.0009965</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -19703,7 +19691,7 @@
         </is>
       </c>
       <c r="K325" t="n">
-        <v>0.0010137</v>
+        <v>0.0008554000000000001</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -19762,7 +19750,7 @@
         </is>
       </c>
       <c r="K326" t="n">
-        <v>0.004032</v>
+        <v>0.0043831</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -19821,7 +19809,7 @@
         </is>
       </c>
       <c r="K327" t="n">
-        <v>0.0072258</v>
+        <v>0.0158148</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -19880,7 +19868,7 @@
         </is>
       </c>
       <c r="K328" t="n">
-        <v>0.0031707</v>
+        <v>0.0040562</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -19939,7 +19927,7 @@
         </is>
       </c>
       <c r="K329" t="n">
-        <v>0.0052735</v>
+        <v>0.009741300000000001</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -19998,7 +19986,7 @@
         </is>
       </c>
       <c r="K330" t="n">
-        <v>0.007531400000000001</v>
+        <v>0.0148562</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -20057,7 +20045,7 @@
         </is>
       </c>
       <c r="K331" t="n">
-        <v>0.0022592</v>
+        <v>0.0039578</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -20116,7 +20104,7 @@
         </is>
       </c>
       <c r="K332" t="n">
-        <v>0.0006095</v>
+        <v>0.006539000000000001</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -20175,7 +20163,7 @@
         </is>
       </c>
       <c r="K333" t="n">
-        <v>0.0016082</v>
+        <v>0.0028413</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -20234,7 +20222,7 @@
         </is>
       </c>
       <c r="K334" t="n">
-        <v>0.0041387</v>
+        <v>0.006094400000000001</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -20289,22 +20277,18 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Định An</t>
+          <t>An Phú</t>
         </is>
       </c>
       <c r="K335" t="n">
-        <v>0.005002100000000001</v>
+        <v>0.0113199</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="M335" t="inlineStr">
-        <is>
-          <t>Ward mismatch (expected 'An Phú', got 'Định An')</t>
-        </is>
-      </c>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -20356,7 +20340,7 @@
         </is>
       </c>
       <c r="K336" t="n">
-        <v>0.0037941</v>
+        <v>0.006348400000000001</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -20415,7 +20399,7 @@
         </is>
       </c>
       <c r="K337" t="n">
-        <v>0.0041884</v>
+        <v>0.0056484</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -20474,7 +20458,7 @@
         </is>
       </c>
       <c r="K338" t="n">
-        <v>0.0042516</v>
+        <v>0.007567900000000001</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -20533,7 +20517,7 @@
         </is>
       </c>
       <c r="K339" t="n">
-        <v>0.0038146</v>
+        <v>0.007214600000000001</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -20592,7 +20576,7 @@
         </is>
       </c>
       <c r="K340" t="n">
-        <v>0.0049911</v>
+        <v>0.005590700000000001</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -20639,7 +20623,7 @@
         </is>
       </c>
       <c r="K341" t="n">
-        <v>0.0012274</v>
+        <v>0.0020172</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -20702,7 +20686,7 @@
         </is>
       </c>
       <c r="K342" t="n">
-        <v>0.0032253</v>
+        <v>0.0045458</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -20761,7 +20745,7 @@
         </is>
       </c>
       <c r="K343" t="n">
-        <v>0.007659900000000001</v>
+        <v>0.0178364</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -20820,7 +20804,7 @@
         </is>
       </c>
       <c r="K344" t="n">
-        <v>0.0014377</v>
+        <v>0.0016822</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -20879,7 +20863,7 @@
         </is>
       </c>
       <c r="K345" t="n">
-        <v>0.0005783</v>
+        <v>0.007075700000000001</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -20938,7 +20922,7 @@
         </is>
       </c>
       <c r="K346" t="n">
-        <v>0.0050047</v>
+        <v>0.008069100000000001</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -20997,7 +20981,7 @@
         </is>
       </c>
       <c r="K347" t="n">
-        <v>0.0034645</v>
+        <v>0.0055353</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -21056,7 +21040,7 @@
         </is>
       </c>
       <c r="K348" t="n">
-        <v>0.0028511</v>
+        <v>0.004569</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -21115,7 +21099,7 @@
         </is>
       </c>
       <c r="K349" t="n">
-        <v>0.004400100000000001</v>
+        <v>0.005720100000000001</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -21174,7 +21158,7 @@
         </is>
       </c>
       <c r="K350" t="n">
-        <v>0.0008714</v>
+        <v>0.009353500000000001</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -21233,7 +21217,7 @@
         </is>
       </c>
       <c r="K351" t="n">
-        <v>0.0054231</v>
+        <v>0.0107106</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -21284,7 +21268,7 @@
         </is>
       </c>
       <c r="K352" t="n">
-        <v>0.0011322</v>
+        <v>0.0015114</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -21343,7 +21327,7 @@
         </is>
       </c>
       <c r="K353" t="n">
-        <v>0.003359</v>
+        <v>0.0071132</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -21394,7 +21378,7 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="n">
-        <v>0.0010947</v>
+        <v>0.00106</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -21445,7 +21429,7 @@
         </is>
       </c>
       <c r="K355" t="n">
-        <v>0.0014092</v>
+        <v>0.0019353</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -21496,7 +21480,7 @@
         </is>
       </c>
       <c r="K356" t="n">
-        <v>0.0006999</v>
+        <v>0.0010135</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -21547,7 +21531,7 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="n">
-        <v>0.0025611</v>
+        <v>0.0035638</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -21598,7 +21582,7 @@
         </is>
       </c>
       <c r="K358" t="n">
-        <v>0.001465</v>
+        <v>0.0016263</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -21657,7 +21641,7 @@
         </is>
       </c>
       <c r="K359" t="n">
-        <v>0.0039896</v>
+        <v>0.005046800000000001</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -21716,7 +21700,7 @@
         </is>
       </c>
       <c r="K360" t="n">
-        <v>0.004709000000000001</v>
+        <v>0.0076178</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -21771,7 +21755,7 @@
         </is>
       </c>
       <c r="K361" t="n">
-        <v>0.0012252</v>
+        <v>0.0012006</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -21834,7 +21818,7 @@
         </is>
       </c>
       <c r="K362" t="n">
-        <v>0.0008661000000000001</v>
+        <v>0.0014348</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -21889,7 +21873,7 @@
         </is>
       </c>
       <c r="K363" t="n">
-        <v>0.000443</v>
+        <v>0.0004764</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -21952,7 +21936,7 @@
         </is>
       </c>
       <c r="K364" t="n">
-        <v>0.0063707</v>
+        <v>0.0104244</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -22007,7 +21991,7 @@
         </is>
       </c>
       <c r="K365" t="n">
-        <v>0.0020068</v>
+        <v>0.0024131</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -22062,7 +22046,7 @@
         </is>
       </c>
       <c r="K366" t="n">
-        <v>0.0005266</v>
+        <v>0.0007518000000000001</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -22117,7 +22101,7 @@
         </is>
       </c>
       <c r="K367" t="n">
-        <v>0.001948</v>
+        <v>0.0022078</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -22168,7 +22152,7 @@
         </is>
       </c>
       <c r="K368" t="n">
-        <v>0.0008522</v>
+        <v>0.0011038</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -22215,7 +22199,7 @@
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="n">
-        <v>0.0002497</v>
+        <v>0.0003445</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -22266,7 +22250,7 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
-        <v>0.0003192</v>
+        <v>0.0004045</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -22329,7 +22313,7 @@
         </is>
       </c>
       <c r="K371" t="n">
-        <v>0.0029625</v>
+        <v>0.006165800000000001</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -22380,7 +22364,7 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
-        <v>0.002791</v>
+        <v>0.0029116</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -22431,7 +22415,7 @@
         </is>
       </c>
       <c r="K373" t="n">
-        <v>0.0007382000000000001</v>
+        <v>0.0008060000000000001</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -22482,7 +22466,7 @@
         </is>
       </c>
       <c r="K374" t="n">
-        <v>0.0016403</v>
+        <v>0.0020896</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -22537,7 +22521,7 @@
         </is>
       </c>
       <c r="K375" t="n">
-        <v>0.001759</v>
+        <v>0.0022351</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -22592,7 +22576,7 @@
         </is>
       </c>
       <c r="K376" t="n">
-        <v>0.0008666</v>
+        <v>0.0010123</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -22639,7 +22623,7 @@
         </is>
       </c>
       <c r="K377" t="n">
-        <v>0.0002637</v>
+        <v>0.0003125</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -22702,7 +22686,7 @@
         </is>
       </c>
       <c r="K378" t="n">
-        <v>0.0014897</v>
+        <v>0.0016535</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -22757,7 +22741,7 @@
         </is>
       </c>
       <c r="K379" t="n">
-        <v>0.0016389</v>
+        <v>0.0015758</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -22816,7 +22800,7 @@
         </is>
       </c>
       <c r="K380" t="n">
-        <v>0.0034079</v>
+        <v>0.004717000000000001</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -22875,7 +22859,7 @@
         </is>
       </c>
       <c r="K381" t="n">
-        <v>0.0061376</v>
+        <v>0.005887900000000001</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -22934,7 +22918,7 @@
         </is>
       </c>
       <c r="K382" t="n">
-        <v>0.0036339</v>
+        <v>0.0041158</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -22993,7 +22977,7 @@
         </is>
       </c>
       <c r="K383" t="n">
-        <v>0.0054126</v>
+        <v>0.006917700000000001</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -23044,7 +23028,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="n">
-        <v>0.0019646</v>
+        <v>0.0023105</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -23095,7 +23079,7 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="n">
-        <v>0.0019804</v>
+        <v>0.0021703</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -23146,7 +23130,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="n">
-        <v>0.0014131</v>
+        <v>0.0019387</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -23205,7 +23189,7 @@
         </is>
       </c>
       <c r="K387" t="n">
-        <v>0.0008527000000000001</v>
+        <v>0.0012348</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
@@ -23256,7 +23240,7 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="n">
-        <v>0.0010534</v>
+        <v>0.001261</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
@@ -23303,7 +23287,7 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="n">
-        <v>0.0005837</v>
+        <v>0.0005142</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -23358,7 +23342,7 @@
         </is>
       </c>
       <c r="K390" t="n">
-        <v>0.0007843</v>
+        <v>0.0011035</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -23417,7 +23401,7 @@
         </is>
       </c>
       <c r="K391" t="n">
-        <v>0.0037586</v>
+        <v>0.004162900000000001</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
@@ -23468,7 +23452,7 @@
         </is>
       </c>
       <c r="K392" t="n">
-        <v>0.0008662</v>
+        <v>0.0011571</v>
       </c>
       <c r="L392" t="inlineStr">
         <is>
@@ -23523,7 +23507,7 @@
         </is>
       </c>
       <c r="K393" t="n">
-        <v>0.0011624</v>
+        <v>0.0012221</v>
       </c>
       <c r="L393" t="inlineStr">
         <is>
@@ -23586,7 +23570,7 @@
         </is>
       </c>
       <c r="K394" t="n">
-        <v>0.0039781</v>
+        <v>0.0056181</v>
       </c>
       <c r="L394" t="inlineStr">
         <is>
@@ -23633,7 +23617,7 @@
         </is>
       </c>
       <c r="K395" t="n">
-        <v>0.0002479</v>
+        <v>0.0003549</v>
       </c>
       <c r="L395" t="inlineStr">
         <is>
@@ -23696,7 +23680,7 @@
         </is>
       </c>
       <c r="K396" t="n">
-        <v>0.003001</v>
+        <v>0.0040719</v>
       </c>
       <c r="L396" t="inlineStr">
         <is>
@@ -23747,7 +23731,7 @@
         </is>
       </c>
       <c r="K397" t="n">
-        <v>0.001155</v>
+        <v>0.0014352</v>
       </c>
       <c r="L397" t="inlineStr">
         <is>
@@ -23794,7 +23778,7 @@
         </is>
       </c>
       <c r="K398" t="n">
-        <v>0.0002287</v>
+        <v>0.0003387</v>
       </c>
       <c r="L398" t="inlineStr">
         <is>
@@ -23857,7 +23841,7 @@
         </is>
       </c>
       <c r="K399" t="n">
-        <v>0.0061067</v>
+        <v>0.0077418</v>
       </c>
       <c r="L399" t="inlineStr">
         <is>
@@ -23916,7 +23900,7 @@
         </is>
       </c>
       <c r="K400" t="n">
-        <v>0.002348</v>
+        <v>0.0031525</v>
       </c>
       <c r="L400" t="inlineStr">
         <is>
@@ -23979,7 +23963,7 @@
         </is>
       </c>
       <c r="K401" t="n">
-        <v>0.0055661</v>
+        <v>0.00772</v>
       </c>
       <c r="L401" t="inlineStr">
         <is>
@@ -24030,7 +24014,7 @@
         </is>
       </c>
       <c r="K402" t="n">
-        <v>0.0003576</v>
+        <v>0.0004225</v>
       </c>
       <c r="L402" t="inlineStr">
         <is>
@@ -24081,7 +24065,7 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="n">
-        <v>0.0005315000000000001</v>
+        <v>0.0004916</v>
       </c>
       <c r="L403" t="inlineStr">
         <is>
@@ -24140,7 +24124,7 @@
         </is>
       </c>
       <c r="K404" t="n">
-        <v>0.0004912</v>
+        <v>0.0006555</v>
       </c>
       <c r="L404" t="inlineStr">
         <is>
@@ -24203,7 +24187,7 @@
         </is>
       </c>
       <c r="K405" t="n">
-        <v>0.0045759</v>
+        <v>0.008413</v>
       </c>
       <c r="L405" t="inlineStr">
         <is>
@@ -24254,7 +24238,7 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="n">
-        <v>0.0016821</v>
+        <v>0.0020921</v>
       </c>
       <c r="L406" t="inlineStr">
         <is>
@@ -24305,7 +24289,7 @@
         </is>
       </c>
       <c r="K407" t="n">
-        <v>0.0009667</v>
+        <v>0.0012051</v>
       </c>
       <c r="L407" t="inlineStr">
         <is>
@@ -24364,7 +24348,7 @@
         </is>
       </c>
       <c r="K408" t="n">
-        <v>0.0028432</v>
+        <v>0.0029203</v>
       </c>
       <c r="L408" t="inlineStr">
         <is>
@@ -24411,7 +24395,7 @@
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="n">
-        <v>0.0006388</v>
+        <v>0.0007284</v>
       </c>
       <c r="L409" t="inlineStr">
         <is>
@@ -24466,7 +24450,7 @@
         </is>
       </c>
       <c r="K410" t="n">
-        <v>0.0010332</v>
+        <v>0.0014236</v>
       </c>
       <c r="L410" t="inlineStr">
         <is>
@@ -24521,7 +24505,7 @@
         </is>
       </c>
       <c r="K411" t="n">
-        <v>0.0007865000000000001</v>
+        <v>0.0011242</v>
       </c>
       <c r="L411" t="inlineStr">
         <is>
@@ -24572,7 +24556,7 @@
         </is>
       </c>
       <c r="K412" t="n">
-        <v>0.0008685</v>
+        <v>0.0011071</v>
       </c>
       <c r="L412" t="inlineStr">
         <is>
@@ -24623,7 +24607,7 @@
         </is>
       </c>
       <c r="K413" t="n">
-        <v>0.0005807000000000001</v>
+        <v>0.0007377000000000001</v>
       </c>
       <c r="L413" t="inlineStr">
         <is>
@@ -24670,7 +24654,7 @@
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="n">
-        <v>0.0006252</v>
+        <v>0.0005036</v>
       </c>
       <c r="L414" t="inlineStr">
         <is>
@@ -24733,7 +24717,7 @@
         </is>
       </c>
       <c r="K415" t="n">
-        <v>0.0049747</v>
+        <v>0.0077669</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
@@ -24772,19 +24756,15 @@
           <t>Quỹ Nhất</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr"/>
-      <c r="I416" t="inlineStr">
+      <c r="H416" t="inlineStr">
         <is>
           <t>Nam Định</t>
         </is>
       </c>
-      <c r="J416" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="n">
-        <v>0.0006731</v>
+        <v>0.0006049</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
@@ -24793,7 +24773,7 @@
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>Province mismatch (expected 'Nam Định', got 'None'); District mismatch (expected 'None', got 'Nam Định'); Ward mismatch (expected 'Quỹ Nhất', got 'I')</t>
+          <t>Ward mismatch (expected 'Quỹ Nhất', got 'None')</t>
         </is>
       </c>
     </row>
@@ -24835,7 +24815,7 @@
         </is>
       </c>
       <c r="K417" t="n">
-        <v>0.0005102</v>
+        <v>0.0006748</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
@@ -24890,7 +24870,7 @@
         </is>
       </c>
       <c r="K418" t="n">
-        <v>0.0008201</v>
+        <v>0.0009810000000000001</v>
       </c>
       <c r="L418" t="inlineStr">
         <is>
@@ -24945,7 +24925,7 @@
         </is>
       </c>
       <c r="K419" t="n">
-        <v>0.0021264</v>
+        <v>0.0022624</v>
       </c>
       <c r="L419" t="inlineStr">
         <is>
@@ -24996,7 +24976,7 @@
         </is>
       </c>
       <c r="K420" t="n">
-        <v>0.0012343</v>
+        <v>0.0014441</v>
       </c>
       <c r="L420" t="inlineStr">
         <is>
@@ -25051,7 +25031,7 @@
         </is>
       </c>
       <c r="K421" t="n">
-        <v>0.0008622</v>
+        <v>0.0012024</v>
       </c>
       <c r="L421" t="inlineStr">
         <is>
@@ -25114,7 +25094,7 @@
         </is>
       </c>
       <c r="K422" t="n">
-        <v>0.0034913</v>
+        <v>0.0067301</v>
       </c>
       <c r="L422" t="inlineStr">
         <is>
@@ -25173,7 +25153,7 @@
         </is>
       </c>
       <c r="K423" t="n">
-        <v>0.0053612</v>
+        <v>0.007006600000000001</v>
       </c>
       <c r="L423" t="inlineStr">
         <is>
@@ -25224,7 +25204,7 @@
         </is>
       </c>
       <c r="K424" t="n">
-        <v>0.0004491</v>
+        <v>0.0006893</v>
       </c>
       <c r="L424" t="inlineStr">
         <is>
@@ -25275,7 +25255,7 @@
         </is>
       </c>
       <c r="K425" t="n">
-        <v>0.0003557</v>
+        <v>0.0004462</v>
       </c>
       <c r="L425" t="inlineStr">
         <is>
@@ -25334,7 +25314,7 @@
         </is>
       </c>
       <c r="K426" t="n">
-        <v>0.0004206</v>
+        <v>0.0005019</v>
       </c>
       <c r="L426" t="inlineStr">
         <is>
@@ -25389,7 +25369,7 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="n">
-        <v>0.0017523</v>
+        <v>0.0024782</v>
       </c>
       <c r="L427" t="inlineStr">
         <is>
@@ -25448,7 +25428,7 @@
         </is>
       </c>
       <c r="K428" t="n">
-        <v>0.0008787000000000001</v>
+        <v>0.0009353</v>
       </c>
       <c r="L428" t="inlineStr">
         <is>
@@ -25503,7 +25483,7 @@
         </is>
       </c>
       <c r="K429" t="n">
-        <v>0.0016309</v>
+        <v>0.0025117</v>
       </c>
       <c r="L429" t="inlineStr">
         <is>
@@ -25562,7 +25542,7 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="n">
-        <v>0.0006087</v>
+        <v>0.0006984000000000001</v>
       </c>
       <c r="L430" t="inlineStr">
         <is>
@@ -25621,7 +25601,7 @@
         </is>
       </c>
       <c r="K431" t="n">
-        <v>0.0021534</v>
+        <v>0.0024938</v>
       </c>
       <c r="L431" t="inlineStr">
         <is>
@@ -25684,7 +25664,7 @@
         </is>
       </c>
       <c r="K432" t="n">
-        <v>0.002427</v>
+        <v>0.003754</v>
       </c>
       <c r="L432" t="inlineStr">
         <is>
@@ -25735,11 +25715,11 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Hải An</t>
+          <t>Dun</t>
         </is>
       </c>
       <c r="K433" t="n">
-        <v>0.0010512</v>
+        <v>0.0019255</v>
       </c>
       <c r="L433" t="inlineStr">
         <is>
@@ -25748,7 +25728,7 @@
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>Province mismatch (expected 'Quảng Trị', got 'None')</t>
+          <t>Province mismatch (expected 'Quảng Trị', got 'None'); Ward mismatch (expected 'Hải An', got 'Dun')</t>
         </is>
       </c>
     </row>
@@ -25794,7 +25774,7 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="n">
-        <v>0.001591</v>
+        <v>0.0023299</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
@@ -25845,7 +25825,7 @@
         </is>
       </c>
       <c r="K435" t="n">
-        <v>0.0015545</v>
+        <v>0.0016567</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
@@ -25896,7 +25876,7 @@
         </is>
       </c>
       <c r="K436" t="n">
-        <v>0.0005889000000000001</v>
+        <v>0.0007498</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
@@ -25947,7 +25927,7 @@
         </is>
       </c>
       <c r="K437" t="n">
-        <v>0.0007175</v>
+        <v>0.0008079000000000001</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
@@ -26010,7 +25990,7 @@
         </is>
       </c>
       <c r="K438" t="n">
-        <v>0.0009837000000000001</v>
+        <v>0.0011173</v>
       </c>
       <c r="L438" t="inlineStr">
         <is>
@@ -26057,7 +26037,7 @@
         </is>
       </c>
       <c r="K439" t="n">
-        <v>0.0001937</v>
+        <v>0.0002983</v>
       </c>
       <c r="L439" t="inlineStr">
         <is>
@@ -26112,7 +26092,7 @@
         </is>
       </c>
       <c r="K440" t="n">
-        <v>0.0004831</v>
+        <v>0.0005823</v>
       </c>
       <c r="L440" t="inlineStr">
         <is>
@@ -26167,7 +26147,7 @@
         </is>
       </c>
       <c r="K441" t="n">
-        <v>0.0016135</v>
+        <v>0.00199</v>
       </c>
       <c r="L441" t="inlineStr">
         <is>
@@ -26226,7 +26206,7 @@
         </is>
       </c>
       <c r="K442" t="n">
-        <v>0.0015364</v>
+        <v>0.0022909</v>
       </c>
       <c r="L442" t="inlineStr">
         <is>
@@ -26277,7 +26257,7 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="n">
-        <v>0.0015112</v>
+        <v>0.0017817</v>
       </c>
       <c r="L443" t="inlineStr">
         <is>
@@ -26328,7 +26308,7 @@
         </is>
       </c>
       <c r="K444" t="n">
-        <v>0.0014594</v>
+        <v>0.0016875</v>
       </c>
       <c r="L444" t="inlineStr">
         <is>
@@ -26383,7 +26363,7 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="n">
-        <v>0.0025682</v>
+        <v>0.0029297</v>
       </c>
       <c r="L445" t="inlineStr">
         <is>
@@ -26438,7 +26418,7 @@
         </is>
       </c>
       <c r="K446" t="n">
-        <v>0.001182</v>
+        <v>0.0016652</v>
       </c>
       <c r="L446" t="inlineStr">
         <is>
@@ -26481,7 +26461,7 @@
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="n">
-        <v>0.0001687</v>
+        <v>0.0002552</v>
       </c>
       <c r="L447" t="inlineStr">
         <is>
@@ -26544,7 +26524,7 @@
         </is>
       </c>
       <c r="K448" t="n">
-        <v>0.0032089</v>
+        <v>0.0038283</v>
       </c>
       <c r="L448" t="inlineStr">
         <is>
@@ -26595,7 +26575,7 @@
         </is>
       </c>
       <c r="K449" t="n">
-        <v>0.0007356000000000001</v>
+        <v>0.0009114</v>
       </c>
       <c r="L449" t="inlineStr">
         <is>
@@ -26650,7 +26630,7 @@
         </is>
       </c>
       <c r="K450" t="n">
-        <v>0.0006894000000000001</v>
+        <v>0.0009295000000000001</v>
       </c>
       <c r="L450" t="inlineStr">
         <is>
@@ -26709,7 +26689,7 @@
         </is>
       </c>
       <c r="K451" t="n">
-        <v>0.0017596</v>
+        <v>0.0022626</v>
       </c>
       <c r="L451" t="inlineStr">
         <is>
@@ -26764,7 +26744,7 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="n">
-        <v>0.0023046</v>
+        <v>0.0037993</v>
       </c>
       <c r="L452" t="inlineStr">
         <is>
@@ -26815,7 +26795,7 @@
         </is>
       </c>
       <c r="K453" t="n">
-        <v>0.0004727000000000001</v>
+        <v>0.0005459</v>
       </c>
       <c r="L453" t="inlineStr">
         <is>
@@ -26874,7 +26854,7 @@
         </is>
       </c>
       <c r="K454" t="n">
-        <v>0.007974</v>
+        <v>0.0134285</v>
       </c>
       <c r="L454" t="inlineStr">
         <is>
@@ -26937,7 +26917,7 @@
         </is>
       </c>
       <c r="K455" t="n">
-        <v>0.0004936000000000001</v>
+        <v>0.0005851000000000001</v>
       </c>
       <c r="L455" t="inlineStr">
         <is>
@@ -26984,7 +26964,7 @@
         </is>
       </c>
       <c r="K456" t="n">
-        <v>0.0003563</v>
+        <v>0.0004526000000000001</v>
       </c>
       <c r="L456" t="inlineStr">
         <is>
@@ -27047,7 +27027,7 @@
         </is>
       </c>
       <c r="K457" t="n">
-        <v>0.0024784</v>
+        <v>0.0034985</v>
       </c>
       <c r="L457" t="inlineStr">
         <is>
@@ -27106,7 +27086,7 @@
         </is>
       </c>
       <c r="K458" t="n">
-        <v>0.0045161</v>
+        <v>0.0101153</v>
       </c>
       <c r="L458" t="inlineStr">
         <is>
@@ -27157,7 +27137,7 @@
         </is>
       </c>
       <c r="K459" t="n">
-        <v>0.0004067</v>
+        <v>0.0005146</v>
       </c>
       <c r="L459" t="inlineStr">
         <is>
@@ -27208,7 +27188,7 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="n">
-        <v>0.0004773000000000001</v>
+        <v>0.0005062000000000001</v>
       </c>
       <c r="L460" t="inlineStr">
         <is>
@@ -27263,7 +27243,7 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="n">
-        <v>0.0029151</v>
+        <v>0.0042844</v>
       </c>
       <c r="L461" t="inlineStr">
         <is>
@@ -27310,7 +27290,7 @@
         </is>
       </c>
       <c r="K462" t="n">
-        <v>0.0003985</v>
+        <v>0.0005048</v>
       </c>
       <c r="L462" t="inlineStr">
         <is>
@@ -27365,7 +27345,7 @@
         </is>
       </c>
       <c r="K463" t="n">
-        <v>0.0010415</v>
+        <v>0.0015325</v>
       </c>
       <c r="L463" t="inlineStr">
         <is>
@@ -27420,7 +27400,7 @@
         </is>
       </c>
       <c r="K464" t="n">
-        <v>0.0016398</v>
+        <v>0.0018489</v>
       </c>
       <c r="L464" t="inlineStr">
         <is>
@@ -27471,7 +27451,7 @@
         </is>
       </c>
       <c r="K465" t="n">
-        <v>0.0005119</v>
+        <v>0.0008012000000000001</v>
       </c>
       <c r="L465" t="inlineStr">
         <is>
@@ -27522,7 +27502,7 @@
         </is>
       </c>
       <c r="K466" t="n">
-        <v>0.0002866</v>
+        <v>0.0005258</v>
       </c>
       <c r="L466" t="inlineStr">
         <is>
@@ -27577,7 +27557,7 @@
         </is>
       </c>
       <c r="K467" t="n">
-        <v>0.0015581</v>
+        <v>0.0015287</v>
       </c>
       <c r="L467" t="inlineStr">
         <is>
@@ -27636,7 +27616,7 @@
         </is>
       </c>
       <c r="K468" t="n">
-        <v>0.008450900000000001</v>
+        <v>0.0110855</v>
       </c>
       <c r="L468" t="inlineStr">
         <is>
@@ -27691,7 +27671,7 @@
         </is>
       </c>
       <c r="K469" t="n">
-        <v>0.0015692</v>
+        <v>0.0018656</v>
       </c>
       <c r="L469" t="inlineStr">
         <is>
@@ -27746,7 +27726,7 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="n">
-        <v>0.0014872</v>
+        <v>0.0025755</v>
       </c>
       <c r="L470" t="inlineStr">
         <is>
@@ -27805,7 +27785,7 @@
         </is>
       </c>
       <c r="K471" t="n">
-        <v>0.0017393</v>
+        <v>0.0024587</v>
       </c>
       <c r="L471" t="inlineStr">
         <is>
@@ -27860,7 +27840,7 @@
         </is>
       </c>
       <c r="K472" t="n">
-        <v>0.0007516000000000001</v>
+        <v>0.0009887000000000001</v>
       </c>
       <c r="L472" t="inlineStr">
         <is>
@@ -27919,7 +27899,7 @@
         </is>
       </c>
       <c r="K473" t="n">
-        <v>0.0008641</v>
+        <v>0.0014101</v>
       </c>
       <c r="L473" t="inlineStr">
         <is>
@@ -27982,7 +27962,7 @@
         </is>
       </c>
       <c r="K474" t="n">
-        <v>0.0043193</v>
+        <v>0.006341100000000001</v>
       </c>
       <c r="L474" t="inlineStr">
         <is>
@@ -28041,7 +28021,7 @@
         </is>
       </c>
       <c r="K475" t="n">
-        <v>0.0049943</v>
+        <v>0.008805800000000001</v>
       </c>
       <c r="L475" t="inlineStr">
         <is>
@@ -28092,7 +28072,7 @@
         </is>
       </c>
       <c r="K476" t="n">
-        <v>0.0009120000000000001</v>
+        <v>0.0012535</v>
       </c>
       <c r="L476" t="inlineStr">
         <is>
@@ -28139,7 +28119,7 @@
         </is>
       </c>
       <c r="K477" t="n">
-        <v>0.0002918</v>
+        <v>0.0003813</v>
       </c>
       <c r="L477" t="inlineStr">
         <is>
@@ -28194,7 +28174,7 @@
         </is>
       </c>
       <c r="K478" t="n">
-        <v>0.0014771</v>
+        <v>0.0018678</v>
       </c>
       <c r="L478" t="inlineStr">
         <is>
@@ -28245,7 +28225,7 @@
         </is>
       </c>
       <c r="K479" t="n">
-        <v>0.0008958000000000001</v>
+        <v>0.0012776</v>
       </c>
       <c r="L479" t="inlineStr">
         <is>
@@ -28288,7 +28268,7 @@
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="n">
-        <v>0.0001414</v>
+        <v>0.0002414</v>
       </c>
       <c r="L480" t="inlineStr">
         <is>
@@ -28347,7 +28327,7 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="n">
-        <v>0.0003617</v>
+        <v>0.0005193</v>
       </c>
       <c r="L481" t="inlineStr">
         <is>
@@ -28402,7 +28382,7 @@
         </is>
       </c>
       <c r="K482" t="n">
-        <v>0.0003735</v>
+        <v>0.0005142</v>
       </c>
       <c r="L482" t="inlineStr">
         <is>
@@ -28453,7 +28433,7 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="n">
-        <v>0.0006453</v>
+        <v>0.000576</v>
       </c>
       <c r="L483" t="inlineStr">
         <is>
@@ -28508,7 +28488,7 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="n">
-        <v>0.0014834</v>
+        <v>0.0019377</v>
       </c>
       <c r="L484" t="inlineStr">
         <is>
@@ -28567,7 +28547,7 @@
         </is>
       </c>
       <c r="K485" t="n">
-        <v>0.0018216</v>
+        <v>0.0032657</v>
       </c>
       <c r="L485" t="inlineStr">
         <is>
@@ -28618,7 +28598,7 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="n">
-        <v>0.0010215</v>
+        <v>0.001292</v>
       </c>
       <c r="L486" t="inlineStr">
         <is>
@@ -28669,7 +28649,7 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="n">
-        <v>0.0014471</v>
+        <v>0.0015654</v>
       </c>
       <c r="L487" t="inlineStr">
         <is>
@@ -28724,7 +28704,7 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="n">
-        <v>0.002685</v>
+        <v>0.0044546</v>
       </c>
       <c r="L488" t="inlineStr">
         <is>
@@ -28779,7 +28759,7 @@
         </is>
       </c>
       <c r="K489" t="n">
-        <v>0.0016895</v>
+        <v>0.0024596</v>
       </c>
       <c r="L489" t="inlineStr">
         <is>
@@ -28830,7 +28810,7 @@
         </is>
       </c>
       <c r="K490" t="n">
-        <v>0.0010686</v>
+        <v>0.0015897</v>
       </c>
       <c r="L490" t="inlineStr">
         <is>
@@ -28881,7 +28861,7 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="n">
-        <v>0.0007445</v>
+        <v>0.0006367</v>
       </c>
       <c r="L491" t="inlineStr">
         <is>
@@ -28932,7 +28912,7 @@
         </is>
       </c>
       <c r="K492" t="n">
-        <v>0.000546</v>
+        <v>0.00046</v>
       </c>
       <c r="L492" t="inlineStr">
         <is>
@@ -28983,7 +28963,7 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="n">
-        <v>0.0013458</v>
+        <v>0.0014714</v>
       </c>
       <c r="L493" t="inlineStr">
         <is>
@@ -29038,7 +29018,7 @@
         </is>
       </c>
       <c r="K494" t="n">
-        <v>0.000876</v>
+        <v>0.0013502</v>
       </c>
       <c r="L494" t="inlineStr">
         <is>
@@ -29093,7 +29073,7 @@
         </is>
       </c>
       <c r="K495" t="n">
-        <v>0.0014642</v>
+        <v>0.0017418</v>
       </c>
       <c r="L495" t="inlineStr">
         <is>
@@ -29144,7 +29124,7 @@
         </is>
       </c>
       <c r="K496" t="n">
-        <v>0.0014905</v>
+        <v>0.0019048</v>
       </c>
       <c r="L496" t="inlineStr">
         <is>
@@ -29199,7 +29179,7 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="n">
-        <v>0.0009628000000000001</v>
+        <v>0.0009595000000000001</v>
       </c>
       <c r="L497" t="inlineStr">
         <is>
@@ -29258,7 +29238,7 @@
         </is>
       </c>
       <c r="K498" t="n">
-        <v>0.0007438000000000001</v>
+        <v>0.0009248</v>
       </c>
       <c r="L498" t="inlineStr">
         <is>
@@ -29317,7 +29297,7 @@
         </is>
       </c>
       <c r="K499" t="n">
-        <v>0.0025746</v>
+        <v>0.0038996</v>
       </c>
       <c r="L499" t="inlineStr">
         <is>
@@ -29372,7 +29352,7 @@
         </is>
       </c>
       <c r="K500" t="n">
-        <v>0.0007042000000000001</v>
+        <v>0.0004705000000000001</v>
       </c>
       <c r="L500" t="inlineStr">
         <is>
@@ -29435,7 +29415,7 @@
         </is>
       </c>
       <c r="K501" t="n">
-        <v>0.0015772</v>
+        <v>0.0016928</v>
       </c>
       <c r="L501" t="inlineStr">
         <is>
@@ -29490,7 +29470,7 @@
         </is>
       </c>
       <c r="K502" t="n">
-        <v>0.0016062</v>
+        <v>0.0019704</v>
       </c>
       <c r="L502" t="inlineStr">
         <is>
@@ -29549,7 +29529,7 @@
         </is>
       </c>
       <c r="K503" t="n">
-        <v>0.004076000000000001</v>
+        <v>0.006623400000000001</v>
       </c>
       <c r="L503" t="inlineStr">
         <is>
@@ -29604,7 +29584,7 @@
         </is>
       </c>
       <c r="K504" t="n">
-        <v>0.0015684</v>
+        <v>0.0021103</v>
       </c>
       <c r="L504" t="inlineStr">
         <is>
@@ -29659,7 +29639,7 @@
         </is>
       </c>
       <c r="K505" t="n">
-        <v>0.0006131</v>
+        <v>0.0007046</v>
       </c>
       <c r="L505" t="inlineStr">
         <is>
@@ -29714,7 +29694,7 @@
         </is>
       </c>
       <c r="K506" t="n">
-        <v>0.0003647</v>
+        <v>0.0004672</v>
       </c>
       <c r="L506" t="inlineStr">
         <is>
@@ -29769,7 +29749,7 @@
         </is>
       </c>
       <c r="K507" t="n">
-        <v>0.0026343</v>
+        <v>0.0024106</v>
       </c>
       <c r="L507" t="inlineStr">
         <is>
@@ -29820,7 +29800,7 @@
         </is>
       </c>
       <c r="K508" t="n">
-        <v>0.0021425</v>
+        <v>0.0020449</v>
       </c>
       <c r="L508" t="inlineStr">
         <is>
@@ -29875,7 +29855,7 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="n">
-        <v>0.0011484</v>
+        <v>0.0010159</v>
       </c>
       <c r="L509" t="inlineStr">
         <is>
@@ -29930,7 +29910,7 @@
         </is>
       </c>
       <c r="K510" t="n">
-        <v>0.0004598</v>
+        <v>0.0004099</v>
       </c>
       <c r="L510" t="inlineStr">
         <is>
@@ -29989,7 +29969,7 @@
         </is>
       </c>
       <c r="K511" t="n">
-        <v>0.0023648</v>
+        <v>0.0028017</v>
       </c>
       <c r="L511" t="inlineStr">
         <is>
@@ -30044,7 +30024,7 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="n">
-        <v>0.0019025</v>
+        <v>0.0026735</v>
       </c>
       <c r="L512" t="inlineStr">
         <is>
@@ -30095,7 +30075,7 @@
         </is>
       </c>
       <c r="K513" t="n">
-        <v>0.0009349</v>
+        <v>0.0011109</v>
       </c>
       <c r="L513" t="inlineStr">
         <is>
@@ -30154,7 +30134,7 @@
         </is>
       </c>
       <c r="K514" t="n">
-        <v>0.0021897</v>
+        <v>0.0027951</v>
       </c>
       <c r="L514" t="inlineStr">
         <is>
@@ -30205,7 +30185,7 @@
         </is>
       </c>
       <c r="K515" t="n">
-        <v>0.0005505</v>
+        <v>0.0008322000000000001</v>
       </c>
       <c r="L515" t="inlineStr">
         <is>
@@ -30256,7 +30236,7 @@
         </is>
       </c>
       <c r="K516" t="n">
-        <v>0.0002871</v>
+        <v>0.0003616</v>
       </c>
       <c r="L516" t="inlineStr">
         <is>
@@ -30307,7 +30287,7 @@
         </is>
       </c>
       <c r="K517" t="n">
-        <v>0.0002876</v>
+        <v>0.0004497</v>
       </c>
       <c r="L517" t="inlineStr">
         <is>
@@ -30358,7 +30338,7 @@
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="n">
-        <v>0.0005686000000000001</v>
+        <v>0.0004496</v>
       </c>
       <c r="L518" t="inlineStr">
         <is>
@@ -30413,7 +30393,7 @@
         </is>
       </c>
       <c r="K519" t="n">
-        <v>0.0024425</v>
+        <v>0.0035154</v>
       </c>
       <c r="L519" t="inlineStr">
         <is>
@@ -30468,7 +30448,7 @@
         </is>
       </c>
       <c r="K520" t="n">
-        <v>0.0011517</v>
+        <v>0.0015802</v>
       </c>
       <c r="L520" t="inlineStr">
         <is>
@@ -30523,7 +30503,7 @@
         </is>
       </c>
       <c r="K521" t="n">
-        <v>0.0013252</v>
+        <v>0.0017753</v>
       </c>
       <c r="L521" t="inlineStr">
         <is>
@@ -30578,7 +30558,7 @@
         </is>
       </c>
       <c r="K522" t="n">
-        <v>0.0012015</v>
+        <v>0.0024671</v>
       </c>
       <c r="L522" t="inlineStr">
         <is>
@@ -30629,7 +30609,7 @@
         </is>
       </c>
       <c r="K523" t="n">
-        <v>0.0002517</v>
+        <v>0.0003538</v>
       </c>
       <c r="L523" t="inlineStr">
         <is>
@@ -30684,7 +30664,7 @@
         </is>
       </c>
       <c r="K524" t="n">
-        <v>0.0003842</v>
+        <v>0.0005078</v>
       </c>
       <c r="L524" t="inlineStr">
         <is>
@@ -30735,7 +30715,7 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="n">
-        <v>0.0012019</v>
+        <v>0.0012246</v>
       </c>
       <c r="L525" t="inlineStr">
         <is>
@@ -30790,7 +30770,7 @@
         </is>
       </c>
       <c r="K526" t="n">
-        <v>0.0011305</v>
+        <v>0.0012597</v>
       </c>
       <c r="L526" t="inlineStr">
         <is>
@@ -30845,7 +30825,7 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="n">
-        <v>0.0015419</v>
+        <v>0.0016553</v>
       </c>
       <c r="L527" t="inlineStr">
         <is>
@@ -30904,7 +30884,7 @@
         </is>
       </c>
       <c r="K528" t="n">
-        <v>0.0030545</v>
+        <v>0.0034485</v>
       </c>
       <c r="L528" t="inlineStr">
         <is>
@@ -30955,7 +30935,7 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="n">
-        <v>0.0005457</v>
+        <v>0.0004884000000000001</v>
       </c>
       <c r="L529" t="inlineStr">
         <is>
@@ -31006,7 +30986,7 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="n">
-        <v>0.0014294</v>
+        <v>0.0015738</v>
       </c>
       <c r="L530" t="inlineStr">
         <is>
@@ -31061,7 +31041,7 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="n">
-        <v>0.0011773</v>
+        <v>0.0013501</v>
       </c>
       <c r="L531" t="inlineStr">
         <is>
@@ -31124,7 +31104,7 @@
         </is>
       </c>
       <c r="K532" t="n">
-        <v>0.0044812</v>
+        <v>0.008288</v>
       </c>
       <c r="L532" t="inlineStr">
         <is>
@@ -31179,7 +31159,7 @@
         </is>
       </c>
       <c r="K533" t="n">
-        <v>0.0013292</v>
+        <v>0.0014252</v>
       </c>
       <c r="L533" t="inlineStr">
         <is>
@@ -31234,7 +31214,7 @@
         </is>
       </c>
       <c r="K534" t="n">
-        <v>0.0005240000000000001</v>
+        <v>0.0006500000000000001</v>
       </c>
       <c r="L534" t="inlineStr">
         <is>
@@ -31285,7 +31265,7 @@
         </is>
       </c>
       <c r="K535" t="n">
-        <v>0.0012789</v>
+        <v>0.0011757</v>
       </c>
       <c r="L535" t="inlineStr">
         <is>
@@ -31336,7 +31316,7 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="n">
-        <v>0.0017063</v>
+        <v>0.0020184</v>
       </c>
       <c r="L536" t="inlineStr">
         <is>
@@ -31391,7 +31371,7 @@
         </is>
       </c>
       <c r="K537" t="n">
-        <v>0.0011209</v>
+        <v>0.0016084</v>
       </c>
       <c r="L537" t="inlineStr">
         <is>
@@ -31454,7 +31434,7 @@
         </is>
       </c>
       <c r="K538" t="n">
-        <v>0.0010578</v>
+        <v>0.0016336</v>
       </c>
       <c r="L538" t="inlineStr">
         <is>
@@ -31505,7 +31485,7 @@
         </is>
       </c>
       <c r="K539" t="n">
-        <v>0.0006599</v>
+        <v>0.0018888</v>
       </c>
       <c r="L539" t="inlineStr">
         <is>
@@ -31556,7 +31536,7 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="n">
-        <v>0.0007457000000000001</v>
+        <v>0.0015985</v>
       </c>
       <c r="L540" t="inlineStr">
         <is>
@@ -31615,7 +31595,7 @@
         </is>
       </c>
       <c r="K541" t="n">
-        <v>0.0053025</v>
+        <v>0.009844800000000001</v>
       </c>
       <c r="L541" t="inlineStr">
         <is>
@@ -31670,7 +31650,7 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="n">
-        <v>0.0020484</v>
+        <v>0.004156200000000001</v>
       </c>
       <c r="L542" t="inlineStr">
         <is>
@@ -31725,7 +31705,7 @@
         </is>
       </c>
       <c r="K543" t="n">
-        <v>0.0009844000000000001</v>
+        <v>0.0013448</v>
       </c>
       <c r="L543" t="inlineStr">
         <is>
@@ -31776,7 +31756,7 @@
         </is>
       </c>
       <c r="K544" t="n">
-        <v>0.0010316</v>
+        <v>0.0014648</v>
       </c>
       <c r="L544" t="inlineStr">
         <is>
@@ -31827,7 +31807,7 @@
         </is>
       </c>
       <c r="K545" t="n">
-        <v>0.0021316</v>
+        <v>0.0021543</v>
       </c>
       <c r="L545" t="inlineStr">
         <is>
@@ -31878,7 +31858,7 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="n">
-        <v>0.0017514</v>
+        <v>0.0022809</v>
       </c>
       <c r="L546" t="inlineStr">
         <is>
@@ -31937,7 +31917,7 @@
         </is>
       </c>
       <c r="K547" t="n">
-        <v>0.004558100000000001</v>
+        <v>0.008902200000000001</v>
       </c>
       <c r="L547" t="inlineStr">
         <is>
@@ -31988,7 +31968,7 @@
         </is>
       </c>
       <c r="K548" t="n">
-        <v>0.0019019</v>
+        <v>0.0021111</v>
       </c>
       <c r="L548" t="inlineStr">
         <is>
@@ -32043,7 +32023,7 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="n">
-        <v>0.0012532</v>
+        <v>0.0011031</v>
       </c>
       <c r="L549" t="inlineStr">
         <is>
@@ -32102,7 +32082,7 @@
         </is>
       </c>
       <c r="K550" t="n">
-        <v>0.0004958</v>
+        <v>0.0006446000000000001</v>
       </c>
       <c r="L550" t="inlineStr">
         <is>
@@ -32165,7 +32145,7 @@
         </is>
       </c>
       <c r="K551" t="n">
-        <v>0.0010474</v>
+        <v>0.0017236</v>
       </c>
       <c r="L551" t="inlineStr">
         <is>
@@ -32216,7 +32196,7 @@
         </is>
       </c>
       <c r="K552" t="n">
-        <v>0.0009063000000000001</v>
+        <v>0.0014762</v>
       </c>
       <c r="L552" t="inlineStr">
         <is>
@@ -32275,7 +32255,7 @@
         </is>
       </c>
       <c r="K553" t="n">
-        <v>0.003125</v>
+        <v>0.0036508</v>
       </c>
       <c r="L553" t="inlineStr">
         <is>
@@ -32326,7 +32306,7 @@
         </is>
       </c>
       <c r="K554" t="n">
-        <v>0.0009643000000000001</v>
+        <v>0.0012313</v>
       </c>
       <c r="L554" t="inlineStr">
         <is>
@@ -32381,7 +32361,7 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="n">
-        <v>0.001091</v>
+        <v>0.0013416</v>
       </c>
       <c r="L555" t="inlineStr">
         <is>
@@ -32444,7 +32424,7 @@
         </is>
       </c>
       <c r="K556" t="n">
-        <v>0.0036571</v>
+        <v>0.0059121</v>
       </c>
       <c r="L556" t="inlineStr">
         <is>
@@ -32499,7 +32479,7 @@
         </is>
       </c>
       <c r="K557" t="n">
-        <v>0.0007362</v>
+        <v>0.0009514</v>
       </c>
       <c r="L557" t="inlineStr">
         <is>
@@ -32554,7 +32534,7 @@
         </is>
       </c>
       <c r="K558" t="n">
-        <v>0.001793</v>
+        <v>0.0020156</v>
       </c>
       <c r="L558" t="inlineStr">
         <is>
@@ -32617,7 +32597,7 @@
         </is>
       </c>
       <c r="K559" t="n">
-        <v>0.004054100000000001</v>
+        <v>0.0061815</v>
       </c>
       <c r="L559" t="inlineStr">
         <is>
@@ -32676,7 +32656,7 @@
         </is>
       </c>
       <c r="K560" t="n">
-        <v>0.0031738</v>
+        <v>0.0039368</v>
       </c>
       <c r="L560" t="inlineStr">
         <is>
@@ -32723,7 +32703,7 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="n">
-        <v>0.0002735</v>
+        <v>0.0003501</v>
       </c>
       <c r="L561" t="inlineStr">
         <is>
@@ -32774,7 +32754,7 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="n">
-        <v>0.0004877</v>
+        <v>0.0006016</v>
       </c>
       <c r="L562" t="inlineStr">
         <is>
@@ -32837,7 +32817,7 @@
         </is>
       </c>
       <c r="K563" t="n">
-        <v>0.0036642</v>
+        <v>0.006412200000000001</v>
       </c>
       <c r="L563" t="inlineStr">
         <is>
@@ -32896,7 +32876,7 @@
         </is>
       </c>
       <c r="K564" t="n">
-        <v>0.0027158</v>
+        <v>0.0033349</v>
       </c>
       <c r="L564" t="inlineStr">
         <is>
@@ -32947,7 +32927,7 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="n">
-        <v>0.0009421000000000001</v>
+        <v>0.0011314</v>
       </c>
       <c r="L565" t="inlineStr">
         <is>
@@ -32998,7 +32978,7 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="n">
-        <v>0.0010211</v>
+        <v>0.0013969</v>
       </c>
       <c r="L566" t="inlineStr">
         <is>
@@ -33057,7 +33037,7 @@
         </is>
       </c>
       <c r="K567" t="n">
-        <v>0.0018344</v>
+        <v>0.0021731</v>
       </c>
       <c r="L567" t="inlineStr">
         <is>
@@ -33112,7 +33092,7 @@
         </is>
       </c>
       <c r="K568" t="n">
-        <v>0.0011267</v>
+        <v>0.0016209</v>
       </c>
       <c r="L568" t="inlineStr">
         <is>
@@ -33175,7 +33155,7 @@
         </is>
       </c>
       <c r="K569" t="n">
-        <v>0.0008616</v>
+        <v>0.0013168</v>
       </c>
       <c r="L569" t="inlineStr">
         <is>
@@ -33222,7 +33202,7 @@
         </is>
       </c>
       <c r="K570" t="n">
-        <v>0.0004674</v>
+        <v>0.0006053</v>
       </c>
       <c r="L570" t="inlineStr">
         <is>
@@ -33277,7 +33257,7 @@
         </is>
       </c>
       <c r="K571" t="n">
-        <v>0.0004843</v>
+        <v>0.0006709</v>
       </c>
       <c r="L571" t="inlineStr">
         <is>
@@ -33336,7 +33316,7 @@
         </is>
       </c>
       <c r="K572" t="n">
-        <v>0.0020574</v>
+        <v>0.0034765</v>
       </c>
       <c r="L572" t="inlineStr">
         <is>
@@ -33395,7 +33375,7 @@
         </is>
       </c>
       <c r="K573" t="n">
-        <v>0.0041475</v>
+        <v>0.0057356</v>
       </c>
       <c r="L573" t="inlineStr">
         <is>
@@ -33454,7 +33434,7 @@
         </is>
       </c>
       <c r="K574" t="n">
-        <v>0.0038415</v>
+        <v>0.004776000000000001</v>
       </c>
       <c r="L574" t="inlineStr">
         <is>
@@ -33509,7 +33489,7 @@
         </is>
       </c>
       <c r="K575" t="n">
-        <v>0.0016731</v>
+        <v>0.0021281</v>
       </c>
       <c r="L575" t="inlineStr">
         <is>
@@ -33564,7 +33544,7 @@
         </is>
       </c>
       <c r="K576" t="n">
-        <v>0.0008341000000000001</v>
+        <v>0.0007070000000000001</v>
       </c>
       <c r="L576" t="inlineStr">
         <is>
@@ -33611,7 +33591,7 @@
         </is>
       </c>
       <c r="K577" t="n">
-        <v>0.0002918</v>
+        <v>0.0004081</v>
       </c>
       <c r="L577" t="inlineStr">
         <is>
@@ -33666,7 +33646,7 @@
         </is>
       </c>
       <c r="K578" t="n">
-        <v>0.0018146</v>
+        <v>0.002566</v>
       </c>
       <c r="L578" t="inlineStr">
         <is>
@@ -33717,7 +33697,7 @@
         </is>
       </c>
       <c r="K579" t="n">
-        <v>0.0009252</v>
+        <v>0.0011695</v>
       </c>
       <c r="L579" t="inlineStr">
         <is>
@@ -33776,7 +33756,7 @@
         </is>
       </c>
       <c r="K580" t="n">
-        <v>0.0034372</v>
+        <v>0.004200000000000001</v>
       </c>
       <c r="L580" t="inlineStr">
         <is>
@@ -33835,7 +33815,7 @@
         </is>
       </c>
       <c r="K581" t="n">
-        <v>0.0007064</v>
+        <v>0.0010103</v>
       </c>
       <c r="L581" t="inlineStr">
         <is>
@@ -33886,7 +33866,7 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="n">
-        <v>0.0011213</v>
+        <v>0.0013</v>
       </c>
       <c r="L582" t="inlineStr">
         <is>
@@ -33937,11 +33917,11 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Đu</t>
+          <t>An Ngãi</t>
         </is>
       </c>
       <c r="K583" t="n">
-        <v>0.0007852</v>
+        <v>0.000898</v>
       </c>
       <c r="L583" t="inlineStr">
         <is>
@@ -33950,7 +33930,7 @@
       </c>
       <c r="M583" t="inlineStr">
         <is>
-          <t>Province mismatch (expected 'Quảng Ngãi', got 'None'); Ward mismatch (expected 'Đức Lợi', got 'Đu')</t>
+          <t>Province mismatch (expected 'Quảng Ngãi', got 'None'); Ward mismatch (expected 'Đức Lợi', got 'An Ngãi')</t>
         </is>
       </c>
     </row>
@@ -34004,7 +33984,7 @@
         </is>
       </c>
       <c r="K584" t="n">
-        <v>0.0060875</v>
+        <v>0.0007711</v>
       </c>
       <c r="L584" t="inlineStr">
         <is>
@@ -34055,7 +34035,7 @@
         </is>
       </c>
       <c r="K585" t="n">
-        <v>0.0016275</v>
+        <v>0.0017411</v>
       </c>
       <c r="L585" t="inlineStr">
         <is>
@@ -34114,7 +34094,7 @@
         </is>
       </c>
       <c r="K586" t="n">
-        <v>0.0031282</v>
+        <v>0.0042429</v>
       </c>
       <c r="L586" t="inlineStr">
         <is>
@@ -34165,7 +34145,7 @@
         </is>
       </c>
       <c r="K587" t="n">
-        <v>0.0007015000000000001</v>
+        <v>0.0009969</v>
       </c>
       <c r="L587" t="inlineStr">
         <is>
@@ -34224,7 +34204,7 @@
         </is>
       </c>
       <c r="K588" t="n">
-        <v>0.0051681</v>
+        <v>0.0072138</v>
       </c>
       <c r="L588" t="inlineStr">
         <is>
@@ -34283,7 +34263,7 @@
         </is>
       </c>
       <c r="K589" t="n">
-        <v>0.0005885</v>
+        <v>0.006964700000000001</v>
       </c>
       <c r="L589" t="inlineStr">
         <is>
@@ -34342,7 +34322,7 @@
         </is>
       </c>
       <c r="K590" t="n">
-        <v>0.0006044000000000001</v>
+        <v>0.0006962</v>
       </c>
       <c r="L590" t="inlineStr">
         <is>
@@ -34397,7 +34377,7 @@
         </is>
       </c>
       <c r="K591" t="n">
-        <v>0.0013092</v>
+        <v>0.0014705</v>
       </c>
       <c r="L591" t="inlineStr">
         <is>
@@ -34460,7 +34440,7 @@
         </is>
       </c>
       <c r="K592" t="n">
-        <v>0.0007162000000000001</v>
+        <v>0.0008554000000000001</v>
       </c>
       <c r="L592" t="inlineStr">
         <is>
@@ -34519,7 +34499,7 @@
         </is>
       </c>
       <c r="K593" t="n">
-        <v>0.0068494</v>
+        <v>0.0118725</v>
       </c>
       <c r="L593" t="inlineStr">
         <is>
@@ -34574,7 +34554,7 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="n">
-        <v>0.0020147</v>
+        <v>0.0020991</v>
       </c>
       <c r="L594" t="inlineStr">
         <is>
@@ -34623,9 +34603,13 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>Hồ</t>
+        </is>
+      </c>
       <c r="K595" t="n">
-        <v>0.0002535</v>
+        <v>0.0005969</v>
       </c>
       <c r="L595" t="inlineStr">
         <is>
@@ -34634,7 +34618,7 @@
       </c>
       <c r="M595" t="inlineStr">
         <is>
-          <t>Province mismatch (expected 'Hồ Chí Minh', got 'None')</t>
+          <t>Province mismatch (expected 'Hồ Chí Minh', got 'None'); Ward mismatch (expected 'None', got 'Hồ')</t>
         </is>
       </c>
     </row>
@@ -34688,7 +34672,7 @@
         </is>
       </c>
       <c r="K596" t="n">
-        <v>0.0034495</v>
+        <v>0.0053134</v>
       </c>
       <c r="L596" t="inlineStr">
         <is>
@@ -34739,7 +34723,7 @@
         </is>
       </c>
       <c r="K597" t="n">
-        <v>0.0009887000000000001</v>
+        <v>0.0012943</v>
       </c>
       <c r="L597" t="inlineStr">
         <is>
@@ -34790,7 +34774,7 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="n">
-        <v>0.0015392</v>
+        <v>0.0017791</v>
       </c>
       <c r="L598" t="inlineStr">
         <is>
@@ -34849,7 +34833,7 @@
         </is>
       </c>
       <c r="K599" t="n">
-        <v>0.0021215</v>
+        <v>0.00296</v>
       </c>
       <c r="L599" t="inlineStr">
         <is>
@@ -34904,7 +34888,7 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="n">
-        <v>0.0007773000000000001</v>
+        <v>0.0008766000000000001</v>
       </c>
       <c r="L600" t="inlineStr">
         <is>
@@ -34959,7 +34943,7 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="n">
-        <v>0.0028066</v>
+        <v>0.0038046</v>
       </c>
       <c r="L601" t="inlineStr">
         <is>
@@ -35014,7 +34998,7 @@
         </is>
       </c>
       <c r="K602" t="n">
-        <v>0.0011179</v>
+        <v>0.0014815</v>
       </c>
       <c r="L602" t="inlineStr">
         <is>
@@ -35065,7 +35049,7 @@
         </is>
       </c>
       <c r="K603" t="n">
-        <v>0.0006033000000000001</v>
+        <v>0.0004983</v>
       </c>
       <c r="L603" t="inlineStr">
         <is>
@@ -35116,7 +35100,7 @@
         </is>
       </c>
       <c r="K604" t="n">
-        <v>0.0009242</v>
+        <v>0.0013172</v>
       </c>
       <c r="L604" t="inlineStr">
         <is>
@@ -35167,7 +35151,7 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="n">
-        <v>0.0004853</v>
+        <v>0.000403</v>
       </c>
       <c r="L605" t="inlineStr">
         <is>
@@ -35230,7 +35214,7 @@
         </is>
       </c>
       <c r="K606" t="n">
-        <v>0.0053362</v>
+        <v>0.009738800000000001</v>
       </c>
       <c r="L606" t="inlineStr">
         <is>
@@ -35281,7 +35265,7 @@
         </is>
       </c>
       <c r="K607" t="n">
-        <v>0.0004379</v>
+        <v>0.0005642000000000001</v>
       </c>
       <c r="L607" t="inlineStr">
         <is>
@@ -35344,7 +35328,7 @@
         </is>
       </c>
       <c r="K608" t="n">
-        <v>0.0011407</v>
+        <v>0.0014884</v>
       </c>
       <c r="L608" t="inlineStr">
         <is>
@@ -35395,7 +35379,7 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="n">
-        <v>0.0014083</v>
+        <v>0.0017531</v>
       </c>
       <c r="L609" t="inlineStr">
         <is>
@@ -35446,7 +35430,7 @@
         </is>
       </c>
       <c r="K610" t="n">
-        <v>0.0007509000000000001</v>
+        <v>0.0009419000000000001</v>
       </c>
       <c r="L610" t="inlineStr">
         <is>
@@ -35505,7 +35489,7 @@
         </is>
       </c>
       <c r="K611" t="n">
-        <v>0.0026144</v>
+        <v>0.0032059</v>
       </c>
       <c r="L611" t="inlineStr">
         <is>
@@ -35560,7 +35544,7 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="n">
-        <v>0.0014398</v>
+        <v>0.0017304</v>
       </c>
       <c r="L612" t="inlineStr">
         <is>
@@ -35615,7 +35599,7 @@
         </is>
       </c>
       <c r="K613" t="n">
-        <v>0.0010472</v>
+        <v>0.0015065</v>
       </c>
       <c r="L613" t="inlineStr">
         <is>
@@ -35674,7 +35658,7 @@
         </is>
       </c>
       <c r="K614" t="n">
-        <v>0.0006169000000000001</v>
+        <v>0.0007592</v>
       </c>
       <c r="L614" t="inlineStr">
         <is>
@@ -35733,7 +35717,7 @@
         </is>
       </c>
       <c r="K615" t="n">
-        <v>0.0037896</v>
+        <v>0.004655400000000001</v>
       </c>
       <c r="L615" t="inlineStr">
         <is>
@@ -35792,7 +35776,7 @@
         </is>
       </c>
       <c r="K616" t="n">
-        <v>0.0030311</v>
+        <v>0.0037029</v>
       </c>
       <c r="L616" t="inlineStr">
         <is>
@@ -35843,7 +35827,7 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="n">
-        <v>0.001609</v>
+        <v>0.0020517</v>
       </c>
       <c r="L617" t="inlineStr">
         <is>
@@ -35890,7 +35874,7 @@
         </is>
       </c>
       <c r="K618" t="n">
-        <v>0.0003034</v>
+        <v>0.000367</v>
       </c>
       <c r="L618" t="inlineStr">
         <is>
@@ -35937,11 +35921,7 @@
           <t>Thái Hòa</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>Hà Tĩnh</t>
-        </is>
-      </c>
+      <c r="H619" t="inlineStr"/>
       <c r="I619" t="inlineStr">
         <is>
           <t>Ba Vì</t>
@@ -35949,11 +35929,11 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Thái Phương</t>
+          <t>Hồ</t>
         </is>
       </c>
       <c r="K619" t="n">
-        <v>0.0008244000000000001</v>
+        <v>0.0013576</v>
       </c>
       <c r="L619" t="inlineStr">
         <is>
@@ -35962,7 +35942,7 @@
       </c>
       <c r="M619" t="inlineStr">
         <is>
-          <t>Province mismatch (expected 'Hà Nội', got 'Hà Tĩnh'); Ward mismatch (expected 'Thái Hòa', got 'Thái Phương')</t>
+          <t>Province mismatch (expected 'Hà Nội', got 'None'); Ward mismatch (expected 'Thái Hòa', got 'Hồ')</t>
         </is>
       </c>
     </row>
@@ -36008,7 +35988,7 @@
         </is>
       </c>
       <c r="K620" t="n">
-        <v>0.0014367</v>
+        <v>0.0017025</v>
       </c>
       <c r="L620" t="inlineStr">
         <is>
@@ -36063,7 +36043,7 @@
         </is>
       </c>
       <c r="K621" t="n">
-        <v>0.0013054</v>
+        <v>0.0014124</v>
       </c>
       <c r="L621" t="inlineStr">
         <is>
@@ -36126,7 +36106,7 @@
         </is>
       </c>
       <c r="K622" t="n">
-        <v>0.0024772</v>
+        <v>0.0029481</v>
       </c>
       <c r="L622" t="inlineStr">
         <is>
@@ -36173,7 +36153,7 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="n">
-        <v>0.0004534</v>
+        <v>0.0005676</v>
       </c>
       <c r="L623" t="inlineStr">
         <is>
@@ -36236,7 +36216,7 @@
         </is>
       </c>
       <c r="K624" t="n">
-        <v>0.0021658</v>
+        <v>0.0025726</v>
       </c>
       <c r="L624" t="inlineStr">
         <is>
@@ -36295,7 +36275,7 @@
         </is>
       </c>
       <c r="K625" t="n">
-        <v>0.0005552000000000001</v>
+        <v>0.0006810000000000001</v>
       </c>
       <c r="L625" t="inlineStr">
         <is>
@@ -36354,7 +36334,7 @@
         </is>
       </c>
       <c r="K626" t="n">
-        <v>0.0020674</v>
+        <v>0.0022476</v>
       </c>
       <c r="L626" t="inlineStr">
         <is>
@@ -36413,7 +36393,7 @@
         </is>
       </c>
       <c r="K627" t="n">
-        <v>0.0033928</v>
+        <v>0.0051408</v>
       </c>
       <c r="L627" t="inlineStr">
         <is>
@@ -36472,7 +36452,7 @@
         </is>
       </c>
       <c r="K628" t="n">
-        <v>0.0023735</v>
+        <v>0.0029257</v>
       </c>
       <c r="L628" t="inlineStr">
         <is>
@@ -36523,7 +36503,7 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="n">
-        <v>0.0007578000000000001</v>
+        <v>0.0009273</v>
       </c>
       <c r="L629" t="inlineStr">
         <is>
@@ -36582,7 +36562,7 @@
         </is>
       </c>
       <c r="K630" t="n">
-        <v>0.0051126</v>
+        <v>0.0072754</v>
       </c>
       <c r="L630" t="inlineStr">
         <is>
@@ -36641,7 +36621,7 @@
         </is>
       </c>
       <c r="K631" t="n">
-        <v>0.0038187</v>
+        <v>0.005312600000000001</v>
       </c>
       <c r="L631" t="inlineStr">
         <is>
@@ -36704,7 +36684,7 @@
         </is>
       </c>
       <c r="K632" t="n">
-        <v>0.005040500000000001</v>
+        <v>0.006599600000000001</v>
       </c>
       <c r="L632" t="inlineStr">
         <is>
@@ -36755,7 +36735,7 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="n">
-        <v>0.0009910000000000001</v>
+        <v>0.0013188</v>
       </c>
       <c r="L633" t="inlineStr">
         <is>
@@ -36806,7 +36786,7 @@
         </is>
       </c>
       <c r="K634" t="n">
-        <v>0.0030893</v>
+        <v>0.0053718</v>
       </c>
       <c r="L634" t="inlineStr">
         <is>
@@ -36853,7 +36833,7 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="n">
-        <v>0.0003809</v>
+        <v>0.0005314</v>
       </c>
       <c r="L635" t="inlineStr">
         <is>
@@ -36908,7 +36888,7 @@
         </is>
       </c>
       <c r="K636" t="n">
-        <v>0.0007</v>
+        <v>0.0008638000000000001</v>
       </c>
       <c r="L636" t="inlineStr">
         <is>
@@ -36959,7 +36939,7 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="n">
-        <v>0.0017527</v>
+        <v>0.0022058</v>
       </c>
       <c r="L637" t="inlineStr">
         <is>
@@ -37010,7 +36990,7 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="n">
-        <v>0.0013899</v>
+        <v>0.0013601</v>
       </c>
       <c r="L638" t="inlineStr">
         <is>
@@ -37061,7 +37041,7 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="n">
-        <v>0.0023801</v>
+        <v>0.0027325</v>
       </c>
       <c r="L639" t="inlineStr">
         <is>
@@ -37116,7 +37096,7 @@
         </is>
       </c>
       <c r="K640" t="n">
-        <v>0.0008973000000000001</v>
+        <v>0.0014946</v>
       </c>
       <c r="L640" t="inlineStr">
         <is>
@@ -37179,7 +37159,7 @@
         </is>
       </c>
       <c r="K641" t="n">
-        <v>0.0005673000000000001</v>
+        <v>0.0007084000000000001</v>
       </c>
       <c r="L641" t="inlineStr">
         <is>
@@ -37234,7 +37214,7 @@
         </is>
       </c>
       <c r="K642" t="n">
-        <v>0.0018648</v>
+        <v>0.0032033</v>
       </c>
       <c r="L642" t="inlineStr">
         <is>
@@ -37289,7 +37269,7 @@
         </is>
       </c>
       <c r="K643" t="n">
-        <v>0.0006951</v>
+        <v>0.0009966</v>
       </c>
       <c r="L643" t="inlineStr">
         <is>
@@ -37348,7 +37328,7 @@
         </is>
       </c>
       <c r="K644" t="n">
-        <v>0.004400100000000001</v>
+        <v>0.0056927</v>
       </c>
       <c r="L644" t="inlineStr">
         <is>
@@ -37403,7 +37383,7 @@
         </is>
       </c>
       <c r="K645" t="n">
-        <v>0.0335738</v>
+        <v>0.0088342</v>
       </c>
       <c r="L645" t="inlineStr">
         <is>
@@ -37466,7 +37446,7 @@
         </is>
       </c>
       <c r="K646" t="n">
-        <v>0.0082325</v>
+        <v>0.0091301</v>
       </c>
       <c r="L646" t="inlineStr">
         <is>
@@ -37517,7 +37497,7 @@
         </is>
       </c>
       <c r="K647" t="n">
-        <v>0.0003832</v>
+        <v>0.0004425</v>
       </c>
       <c r="L647" t="inlineStr">
         <is>
@@ -37572,7 +37552,7 @@
         </is>
       </c>
       <c r="K648" t="n">
-        <v>0.0007175</v>
+        <v>0.0010885</v>
       </c>
       <c r="L648" t="inlineStr">
         <is>
@@ -37623,7 +37603,7 @@
         </is>
       </c>
       <c r="K649" t="n">
-        <v>0.0005495000000000001</v>
+        <v>0.0006273</v>
       </c>
       <c r="L649" t="inlineStr">
         <is>
@@ -37682,7 +37662,7 @@
         </is>
       </c>
       <c r="K650" t="n">
-        <v>0.0047727</v>
+        <v>0.0059689</v>
       </c>
       <c r="L650" t="inlineStr">
         <is>
@@ -37741,7 +37721,7 @@
         </is>
       </c>
       <c r="K651" t="n">
-        <v>0.0066724</v>
+        <v>0.0098145</v>
       </c>
       <c r="L651" t="inlineStr">
         <is>
